--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392566.007568292</v>
+        <v>1389971.05587773</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24815469.40419698</v>
+        <v>24815469.40419699</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4015198.059508897</v>
+        <v>4015198.059508896</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>0.2956717864458521</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658564</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -743,70 +743,70 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>24.76484596498758</v>
       </c>
-      <c r="F3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="G3" t="n">
+      <c r="Y3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="H3" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683287</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -907,7 +907,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>20.87293999249376</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="T6" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="V6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,55 +1059,55 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="H7" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>24.76484596498758</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>28.11631013281968</v>
@@ -1229,49 +1229,49 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>24.76484596498758</v>
+      </c>
+      <c r="U9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>24.76484596498758</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>357.5931320264098</v>
+        <v>302.6958344958161</v>
       </c>
       <c r="H11" t="n">
         <v>278.2747456063233</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.35419329351383</v>
       </c>
       <c r="T11" t="n">
         <v>211.614453672689</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>89.01572435494197</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8666671448867</v>
       </c>
       <c r="H13" t="n">
-        <v>135.8880990722061</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>76.88597063596399</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>155.7512979156064</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.7965502418407</v>
       </c>
       <c r="U13" t="n">
         <v>277.3429094948539</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.37559480131718</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>93.49181086731589</v>
+        <v>334.2419477647554</v>
       </c>
       <c r="H14" t="n">
-        <v>278.2747456063233</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.35419329351383</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.614453672689</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8666671448867</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.392930558174871</v>
+        <v>135.8880990722061</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>76.88597063596399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>237.7965502418407</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3429094948539</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>81.8515460464475</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1855,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>111.2061132189874</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>66.35419329351383</v>
       </c>
       <c r="T17" t="n">
-        <v>211.614453672689</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6415718627557</v>
       </c>
       <c r="V17" t="n">
-        <v>245.4284960777014</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2022,7 +2022,7 @@
         <v>135.8880990722061</v>
       </c>
       <c r="I19" t="n">
-        <v>24.94859562286698</v>
+        <v>76.88597063596399</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>220.1665047761142</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>278.2747456063233</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>66.35419329351383</v>
       </c>
       <c r="T20" t="n">
-        <v>211.614453672689</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>236.1574395897634</v>
+        <v>255.6415718627557</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>53.9458070200866</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>95.89951881052477</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2289,7 +2289,7 @@
         <v>13.84671132087418</v>
       </c>
       <c r="S22" t="n">
-        <v>89.96721158163535</v>
+        <v>155.7512979156064</v>
       </c>
       <c r="T22" t="n">
         <v>237.7965502418407</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.35419329351383</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T23" t="n">
-        <v>211.6144536726897</v>
+        <v>211.614453672689</v>
       </c>
       <c r="U23" t="n">
         <v>255.6415718627563</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>118.3154624767752</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>188.2008825755549</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2572,7 +2572,7 @@
         <v>398.6733162014946</v>
       </c>
       <c r="H26" t="n">
-        <v>278.2747456063248</v>
+        <v>278.2747456063233</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.35419329351383</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T26" t="n">
-        <v>211.614453672689</v>
+        <v>211.6144536726906</v>
       </c>
       <c r="U26" t="n">
         <v>255.6415718627557</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>109.746230131399</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>13.84671132087418</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>155.7512979156064</v>
@@ -2772,7 +2772,7 @@
         <v>277.3429094948539</v>
       </c>
       <c r="V28" t="n">
-        <v>213.1102663840792</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.35419329351383</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T29" t="n">
         <v>211.614453672689</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6415718627563</v>
+        <v>255.6415718627557</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439324</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2958,13 +2958,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>112.608748775577</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>98.08258081091441</v>
+        <v>163.8666671448867</v>
       </c>
       <c r="H31" t="n">
         <v>135.8880990722061</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>13.84671132087418</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>155.7512979156064</v>
@@ -3043,7 +3043,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.673316201496</v>
+        <v>398.6733162014946</v>
       </c>
       <c r="H32" t="n">
         <v>278.2747456063233</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.35419329351383</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T32" t="n">
         <v>211.614453672689</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6415718627557</v>
+        <v>255.6415718627563</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>118.3154624767752</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>118.2057814700872</v>
       </c>
       <c r="G34" t="n">
         <v>163.8666671448867</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>42.82657026529239</v>
+        <v>320.5259732569321</v>
       </c>
       <c r="H35" t="n">
-        <v>278.2747456063233</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.35419329351383</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.614453672689</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6415718627557</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>13.84671132087418</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>155.7512979156064</v>
@@ -3480,7 +3480,7 @@
         <v>237.7965502418407</v>
       </c>
       <c r="U37" t="n">
-        <v>211.5588231608818</v>
+        <v>277.3429094948539</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>188.2008825755554</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>236.5220009939967</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3520,7 +3520,7 @@
         <v>398.6733162014946</v>
       </c>
       <c r="H38" t="n">
-        <v>278.2747456063233</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.35419329351383</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6415718627557</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>315.107047567044</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,10 +3666,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>109.7462301314</v>
       </c>
       <c r="E40" t="n">
-        <v>112.6087487755771</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>287.1142200955878</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.6733162014946</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>278.2747456063233</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6415718627557</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>51.8336248699353</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>64.50840146819444</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8666671448867</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>102.6501164053978</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.88597063596399</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>277.3429094948539</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>372.6107869347655</v>
+        <v>281.0388046745098</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.35419329351383</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.614453672689</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8666671448867</v>
       </c>
       <c r="H46" t="n">
-        <v>73.07763381357059</v>
+        <v>135.8880990722061</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.88597063596399</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>237.7965502418407</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3429094948539</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>61.78637909590977</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>87.68081948359846</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>64.82049353730264</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>2.5479631807729</v>
       </c>
       <c r="G2" t="n">
         <v>2.249304810625575</v>
@@ -4333,16 +4333,16 @@
         <v>28.95979943680427</v>
       </c>
       <c r="K2" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L2" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M2" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="N2" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O2" t="n">
         <v>112.4652405312787</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C3" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D3" t="n">
-        <v>112.4652405312787</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E3" t="n">
-        <v>87.45024460704886</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F3" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
@@ -4412,22 +4412,22 @@
         <v>9.695947772537416</v>
       </c>
       <c r="K3" t="n">
-        <v>9.695947772537416</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="L3" t="n">
-        <v>9.695947772537416</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="M3" t="n">
-        <v>9.695947772537416</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N3" t="n">
-        <v>9.695947772537416</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O3" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P3" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q3" t="n">
         <v>84.63009349978725</v>
@@ -4436,25 +4436,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="W3" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="X3" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K4" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L4" t="n">
-        <v>30.08445184211706</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M4" t="n">
         <v>56.79494646829576</v>
       </c>
       <c r="N4" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="O4" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="P4" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="O4" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="P4" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
@@ -4515,25 +4515,25 @@
         <v>84.0649272658043</v>
       </c>
       <c r="S4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V4" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.249304810625575</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="5">
@@ -4546,13 +4546,13 @@
         <v>87.68081948359846</v>
       </c>
       <c r="C5" t="n">
-        <v>64.82049353730262</v>
+        <v>64.82049353730264</v>
       </c>
       <c r="D5" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E5" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F5" t="n">
         <v>2.547963180772885</v>
@@ -4567,19 +4567,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K5" t="n">
-        <v>2.249304810625575</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L5" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M5" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N5" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O5" t="n">
         <v>84.63009349978725</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="C6" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="D6" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="E6" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="F6" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="G6" t="n">
         <v>2.249304810625575</v>
@@ -4643,55 +4643,55 @@
         <v>2.249304810625575</v>
       </c>
       <c r="I6" t="n">
-        <v>9.695947772537416</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="J6" t="n">
-        <v>37.5310948040289</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K6" t="n">
-        <v>56.79494646829576</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L6" t="n">
-        <v>56.79494646829576</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M6" t="n">
         <v>56.79494646829576</v>
       </c>
       <c r="N6" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O6" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P6" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T6" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U6" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V6" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W6" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X6" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="C7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D7" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E7" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F7" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G7" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H7" t="n">
         <v>2.249304810625575</v>
@@ -4725,52 +4725,52 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K7" t="n">
-        <v>2.249304810625575</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L7" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="M7" t="n">
         <v>57.91959887360855</v>
       </c>
       <c r="N7" t="n">
-        <v>85.75474590510004</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O7" t="n">
-        <v>85.75474590510004</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P7" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q7" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="8">
@@ -4804,25 +4804,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K8" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L8" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M8" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="N8" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="O8" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="P8" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="Q8" t="n">
         <v>84.63009349978725</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C9" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H9" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I9" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J9" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="K9" t="n">
-        <v>30.08445184211706</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="L9" t="n">
-        <v>56.79494646829576</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="M9" t="n">
-        <v>56.79494646829576</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N9" t="n">
-        <v>56.79494646829576</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O9" t="n">
         <v>56.79494646829576</v>
       </c>
       <c r="P9" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R9" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T9" t="n">
         <v>87.45024460704886</v>
       </c>
       <c r="U9" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V9" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="W9" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="X9" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.66461400032987</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="C10" t="n">
-        <v>55.66461400032987</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="D10" t="n">
-        <v>55.66461400032987</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="E10" t="n">
         <v>27.26430073485544</v>
@@ -4962,34 +4962,34 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K10" t="n">
         <v>30.08445184211706</v>
       </c>
-      <c r="K10" t="n">
-        <v>57.91959887360855</v>
-      </c>
       <c r="L10" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M10" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N10" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O10" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P10" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T10" t="n">
         <v>84.0649272658043</v>
@@ -4998,16 +4998,16 @@
         <v>84.0649272658043</v>
       </c>
       <c r="V10" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="W10" t="n">
-        <v>84.0649272658043</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="X10" t="n">
-        <v>84.0649272658043</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="Y10" t="n">
-        <v>84.0649272658043</v>
+        <v>27.26430073485544</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1960.162823911721</v>
+        <v>1481.418387409253</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.162823911721</v>
+        <v>1481.418387409253</v>
       </c>
       <c r="D11" t="n">
-        <v>1536.870203096721</v>
+        <v>1481.418387409253</v>
       </c>
       <c r="E11" t="n">
-        <v>1110.893263244579</v>
+        <v>1055.44144755711</v>
       </c>
       <c r="F11" t="n">
-        <v>685.7690814339787</v>
+        <v>630.3172657465104</v>
       </c>
       <c r="G11" t="n">
         <v>324.5638975689183</v>
       </c>
       <c r="H11" t="n">
-        <v>43.47829594636954</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="I11" t="n">
-        <v>71.19627747979133</v>
+        <v>71.19627747979135</v>
       </c>
       <c r="J11" t="n">
         <v>178.3889658940363</v>
       </c>
       <c r="K11" t="n">
-        <v>347.2880282040282</v>
+        <v>528.041204512733</v>
       </c>
       <c r="L11" t="n">
-        <v>562.8187863782077</v>
+        <v>743.5719626869125</v>
       </c>
       <c r="M11" t="n">
-        <v>807.7845667627848</v>
+        <v>988.5377430714896</v>
       </c>
       <c r="N11" t="n">
-        <v>1057.463893439383</v>
+        <v>1238.217069748088</v>
       </c>
       <c r="O11" t="n">
-        <v>1291.062021595239</v>
+        <v>1776.260982084411</v>
       </c>
       <c r="P11" t="n">
-        <v>1484.826206852979</v>
+        <v>1970.025167342152</v>
       </c>
       <c r="Q11" t="n">
-        <v>1955.467271363511</v>
+        <v>2107.705929641263</v>
       </c>
       <c r="R11" t="n">
-        <v>2173.914797318477</v>
+        <v>2173.914797318478</v>
       </c>
       <c r="S11" t="n">
-        <v>2173.914797318477</v>
+        <v>2106.890359648262</v>
       </c>
       <c r="T11" t="n">
-        <v>1960.162823911721</v>
+        <v>1893.138386241505</v>
       </c>
       <c r="U11" t="n">
-        <v>1960.162823911721</v>
+        <v>1893.138386241505</v>
       </c>
       <c r="V11" t="n">
-        <v>1960.162823911721</v>
+        <v>1893.138386241505</v>
       </c>
       <c r="W11" t="n">
-        <v>1960.162823911721</v>
+        <v>1893.138386241505</v>
       </c>
       <c r="X11" t="n">
-        <v>1960.162823911721</v>
+        <v>1481.418387409253</v>
       </c>
       <c r="Y11" t="n">
-        <v>1960.162823911721</v>
+        <v>1481.418387409253</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>88.38630060231708</v>
       </c>
       <c r="H12" t="n">
-        <v>43.47829594636954</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="I12" t="n">
-        <v>57.05512303157374</v>
+        <v>80.51242887598559</v>
       </c>
       <c r="J12" t="n">
-        <v>409.9429462467465</v>
+        <v>433.4002520911583</v>
       </c>
       <c r="K12" t="n">
-        <v>526.5349172537803</v>
+        <v>549.9922230981922</v>
       </c>
       <c r="L12" t="n">
-        <v>690.8346235533423</v>
+        <v>714.2919293977542</v>
       </c>
       <c r="M12" t="n">
-        <v>885.710122366427</v>
+        <v>909.1674282108388</v>
       </c>
       <c r="N12" t="n">
-        <v>1088.084800561759</v>
+        <v>1111.54210640617</v>
       </c>
       <c r="O12" t="n">
-        <v>1269.607377288102</v>
+        <v>1293.064683132514</v>
       </c>
       <c r="P12" t="n">
-        <v>1412.153625159514</v>
+        <v>1600.39163398989</v>
       </c>
       <c r="Q12" t="n">
-        <v>1793.023656562346</v>
+        <v>1687.56815627744</v>
       </c>
       <c r="R12" t="n">
         <v>1822.942945086069</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.7609147487943</v>
+        <v>380.8619561767453</v>
       </c>
       <c r="C13" t="n">
-        <v>759.7883516277103</v>
+        <v>380.8619561767453</v>
       </c>
       <c r="D13" t="n">
-        <v>596.471578754481</v>
+        <v>380.8619561767453</v>
       </c>
       <c r="E13" t="n">
-        <v>430.2633729073345</v>
+        <v>380.8619561767453</v>
       </c>
       <c r="F13" t="n">
-        <v>258.4015986818949</v>
+        <v>209.0001819513056</v>
       </c>
       <c r="G13" t="n">
-        <v>258.4015986818949</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="H13" t="n">
-        <v>121.1408925483534</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="I13" t="n">
-        <v>43.47829594636954</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="J13" t="n">
-        <v>73.98411385990002</v>
+        <v>151.9058305081209</v>
       </c>
       <c r="K13" t="n">
-        <v>136.9329399486861</v>
+        <v>462.137265710929</v>
       </c>
       <c r="L13" t="n">
-        <v>598.7343505378221</v>
+        <v>923.9386763000651</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.85482544624</v>
+        <v>1014.523670745661</v>
       </c>
       <c r="N13" t="n">
-        <v>1590.595681992934</v>
+        <v>1151.590062514651</v>
       </c>
       <c r="O13" t="n">
-        <v>2047.856925773237</v>
+        <v>1608.851306294954</v>
       </c>
       <c r="P13" t="n">
-        <v>2112.835755304593</v>
+        <v>1986.586340399617</v>
       </c>
       <c r="Q13" t="n">
-        <v>2173.914797318477</v>
+        <v>2173.914797318478</v>
       </c>
       <c r="R13" t="n">
-        <v>2173.914797318477</v>
+        <v>2173.914797318478</v>
       </c>
       <c r="S13" t="n">
         <v>2016.59025396938</v>
       </c>
       <c r="T13" t="n">
-        <v>2016.59025396938</v>
+        <v>1776.391718371561</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.445900944275</v>
+        <v>1496.247365346456</v>
       </c>
       <c r="V13" t="n">
-        <v>1454.734433552304</v>
+        <v>1214.535897954485</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.882029724817</v>
+        <v>939.6834941269981</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.882029724817</v>
+        <v>697.1195975728032</v>
       </c>
       <c r="Y13" t="n">
-        <v>1121.92688346086</v>
+        <v>470.7768292625452</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.170360816009</v>
+        <v>381.0964250016781</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.269630829309</v>
+        <v>381.0964250016781</v>
       </c>
       <c r="D14" t="n">
-        <v>844.9770100143091</v>
+        <v>381.0964250016781</v>
       </c>
       <c r="E14" t="n">
-        <v>419.0000701621667</v>
+        <v>381.0964250016781</v>
       </c>
       <c r="F14" t="n">
-        <v>419.0000701621667</v>
+        <v>381.0964250016781</v>
       </c>
       <c r="G14" t="n">
-        <v>324.5638975689183</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="H14" t="n">
-        <v>43.47829594636954</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="I14" t="n">
-        <v>71.19627747979133</v>
+        <v>71.19627747979135</v>
       </c>
       <c r="J14" t="n">
         <v>178.3889658940363</v>
@@ -5284,46 +5284,46 @@
         <v>347.2880282040282</v>
       </c>
       <c r="L14" t="n">
-        <v>562.8187863782077</v>
+        <v>885.3319405403515</v>
       </c>
       <c r="M14" t="n">
-        <v>807.7845667627848</v>
+        <v>1292.983527251958</v>
       </c>
       <c r="N14" t="n">
-        <v>1057.463893439383</v>
+        <v>1542.662853928556</v>
       </c>
       <c r="O14" t="n">
-        <v>1291.062021595239</v>
+        <v>1776.260982084412</v>
       </c>
       <c r="P14" t="n">
-        <v>1484.826206852979</v>
+        <v>1970.025167342152</v>
       </c>
       <c r="Q14" t="n">
-        <v>1955.467271363511</v>
+        <v>2107.705929641263</v>
       </c>
       <c r="R14" t="n">
-        <v>2173.914797318477</v>
+        <v>2173.914797318478</v>
       </c>
       <c r="S14" t="n">
-        <v>2106.890359648261</v>
+        <v>2173.914797318478</v>
       </c>
       <c r="T14" t="n">
-        <v>2106.890359648261</v>
+        <v>1960.162823911721</v>
       </c>
       <c r="U14" t="n">
-        <v>2106.890359648261</v>
+        <v>1960.162823911721</v>
       </c>
       <c r="V14" t="n">
-        <v>2106.890359648261</v>
+        <v>1602.673409037971</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.890359648261</v>
+        <v>1206.282059338318</v>
       </c>
       <c r="X14" t="n">
-        <v>1695.170360816009</v>
+        <v>1206.282059338318</v>
       </c>
       <c r="Y14" t="n">
-        <v>1695.170360816009</v>
+        <v>800.9447892932081</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>181.5632675724345</v>
       </c>
       <c r="G15" t="n">
-        <v>88.38630060231708</v>
+        <v>88.38630060231709</v>
       </c>
       <c r="H15" t="n">
-        <v>43.47829594636954</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="I15" t="n">
-        <v>57.05512303157374</v>
+        <v>80.51242887598561</v>
       </c>
       <c r="J15" t="n">
-        <v>117.8404537771554</v>
+        <v>433.4002520911584</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4324247841893</v>
+        <v>714.7729260841563</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7321310837513</v>
+        <v>879.0726323837183</v>
       </c>
       <c r="M15" t="n">
-        <v>843.7343973407172</v>
+        <v>1073.948131196803</v>
       </c>
       <c r="N15" t="n">
-        <v>1381.77830967704</v>
+        <v>1276.322809392135</v>
       </c>
       <c r="O15" t="n">
-        <v>1563.300886403384</v>
+        <v>1457.845386118478</v>
       </c>
       <c r="P15" t="n">
-        <v>1705.847134274796</v>
+        <v>1600.39163398989</v>
       </c>
       <c r="Q15" t="n">
-        <v>1793.023656562346</v>
+        <v>1687.56815627744</v>
       </c>
       <c r="R15" t="n">
         <v>1822.942945086069</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3223279424503</v>
+        <v>759.7883516277103</v>
       </c>
       <c r="C16" t="n">
-        <v>390.3497648213663</v>
+        <v>759.7883516277103</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3497648213663</v>
+        <v>596.471578754481</v>
       </c>
       <c r="E16" t="n">
-        <v>390.3497648213663</v>
+        <v>430.2633729073345</v>
       </c>
       <c r="F16" t="n">
-        <v>218.4879905959267</v>
+        <v>258.4015986818949</v>
       </c>
       <c r="G16" t="n">
-        <v>52.96610459099062</v>
+        <v>258.4015986818949</v>
       </c>
       <c r="H16" t="n">
-        <v>43.47829594636954</v>
+        <v>121.1408925483534</v>
       </c>
       <c r="I16" t="n">
-        <v>43.47829594636954</v>
+        <v>43.47829594636956</v>
       </c>
       <c r="J16" t="n">
-        <v>99.10819633282362</v>
+        <v>151.9058305081209</v>
       </c>
       <c r="K16" t="n">
-        <v>162.0570224216096</v>
+        <v>214.8546565969069</v>
       </c>
       <c r="L16" t="n">
-        <v>623.8584330107458</v>
+        <v>676.6560671860431</v>
       </c>
       <c r="M16" t="n">
-        <v>1127.978907919163</v>
+        <v>767.2410616316387</v>
       </c>
       <c r="N16" t="n">
-        <v>1615.719764465857</v>
+        <v>1254.981918178333</v>
       </c>
       <c r="O16" t="n">
-        <v>2072.98100824616</v>
+        <v>1712.243161958636</v>
       </c>
       <c r="P16" t="n">
-        <v>2137.959837777516</v>
+        <v>2089.978196063299</v>
       </c>
       <c r="Q16" t="n">
-        <v>2173.914797318477</v>
+        <v>2173.914797318478</v>
       </c>
       <c r="R16" t="n">
-        <v>2173.914797318477</v>
+        <v>2173.914797318478</v>
       </c>
       <c r="S16" t="n">
-        <v>2016.59025396938</v>
+        <v>2016.590253969381</v>
       </c>
       <c r="T16" t="n">
-        <v>1776.391718371561</v>
+        <v>1776.391718371562</v>
       </c>
       <c r="U16" t="n">
-        <v>1496.247365346456</v>
+        <v>1776.391718371562</v>
       </c>
       <c r="V16" t="n">
-        <v>1496.247365346456</v>
+        <v>1693.713389031716</v>
       </c>
       <c r="W16" t="n">
-        <v>1221.394961518969</v>
+        <v>1418.860985204229</v>
       </c>
       <c r="X16" t="n">
-        <v>978.8310649647739</v>
+        <v>1176.297088650034</v>
       </c>
       <c r="Y16" t="n">
-        <v>752.4882966545159</v>
+        <v>949.9543203397759</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1335.244707931651</v>
+        <v>1445.797567047457</v>
       </c>
       <c r="C17" t="n">
-        <v>908.3439779449511</v>
+        <v>1445.797567047457</v>
       </c>
       <c r="D17" t="n">
-        <v>485.0513571299513</v>
+        <v>1022.504946232458</v>
       </c>
       <c r="E17" t="n">
-        <v>59.07441727780887</v>
+        <v>596.5280063803151</v>
       </c>
       <c r="F17" t="n">
-        <v>59.07441727780887</v>
+        <v>171.4038245697153</v>
       </c>
       <c r="G17" t="n">
-        <v>59.07441727780887</v>
+        <v>171.4038245697153</v>
       </c>
       <c r="H17" t="n">
-        <v>59.07441727780887</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="I17" t="n">
-        <v>86.79239881123065</v>
+        <v>86.79239881123064</v>
       </c>
       <c r="J17" t="n">
         <v>193.9850872254756</v>
       </c>
       <c r="K17" t="n">
-        <v>922.7726684322708</v>
+        <v>925.0310010383602</v>
       </c>
       <c r="L17" t="n">
-        <v>1138.30342660645</v>
+        <v>1140.56175921254</v>
       </c>
       <c r="M17" t="n">
-        <v>1383.269206991027</v>
+        <v>1385.527539597117</v>
       </c>
       <c r="N17" t="n">
-        <v>1632.948533667626</v>
+        <v>1635.206866273715</v>
       </c>
       <c r="O17" t="n">
-        <v>1866.546661823481</v>
+        <v>2018.785320101232</v>
       </c>
       <c r="P17" t="n">
-        <v>2597.592575636366</v>
+        <v>2749.831233914117</v>
       </c>
       <c r="Q17" t="n">
-        <v>2735.273337935477</v>
+        <v>2887.511996213228</v>
       </c>
       <c r="R17" t="n">
-        <v>2953.720863890444</v>
+        <v>2953.720863890443</v>
       </c>
       <c r="S17" t="n">
-        <v>2886.696426220228</v>
+        <v>2886.696426220227</v>
       </c>
       <c r="T17" t="n">
-        <v>2672.944452813471</v>
+        <v>2886.696426220227</v>
       </c>
       <c r="U17" t="n">
-        <v>2414.720642851092</v>
+        <v>2628.472616257847</v>
       </c>
       <c r="V17" t="n">
-        <v>2166.813071055434</v>
+        <v>2270.983201384097</v>
       </c>
       <c r="W17" t="n">
-        <v>2166.813071055434</v>
+        <v>2270.983201384097</v>
       </c>
       <c r="X17" t="n">
-        <v>1755.093072223181</v>
+        <v>2270.983201384097</v>
       </c>
       <c r="Y17" t="n">
-        <v>1755.093072223181</v>
+        <v>1865.645931338987</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>103.9824219337564</v>
       </c>
       <c r="H18" t="n">
-        <v>59.07441727780887</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="I18" t="n">
-        <v>72.65124436301308</v>
+        <v>72.65124436301306</v>
       </c>
       <c r="J18" t="n">
-        <v>133.4365751085948</v>
+        <v>425.5390675781858</v>
       </c>
       <c r="K18" t="n">
-        <v>250.0285461156286</v>
+        <v>542.1310385852197</v>
       </c>
       <c r="L18" t="n">
-        <v>414.3282524151906</v>
+        <v>706.4307448847817</v>
       </c>
       <c r="M18" t="n">
-        <v>609.2037512282752</v>
+        <v>901.3062436978663</v>
       </c>
       <c r="N18" t="n">
-        <v>910.7093862396116</v>
+        <v>1103.680921893198</v>
       </c>
       <c r="O18" t="n">
-        <v>1092.231962965956</v>
+        <v>1285.203498619542</v>
       </c>
       <c r="P18" t="n">
-        <v>1234.778210837367</v>
+        <v>1427.749746490953</v>
       </c>
       <c r="Q18" t="n">
-        <v>1808.619777893785</v>
+        <v>1703.164277608879</v>
       </c>
       <c r="R18" t="n">
         <v>1838.539066417508</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1060.416927122445</v>
+        <v>1112.87892208517</v>
       </c>
       <c r="C19" t="n">
-        <v>888.4443640013615</v>
+        <v>940.9063589640857</v>
       </c>
       <c r="D19" t="n">
-        <v>725.1275911281322</v>
+        <v>777.5895860908564</v>
       </c>
       <c r="E19" t="n">
-        <v>558.9193852809857</v>
+        <v>611.3813802437099</v>
       </c>
       <c r="F19" t="n">
-        <v>387.0576110555461</v>
+        <v>439.5196060182703</v>
       </c>
       <c r="G19" t="n">
-        <v>221.53572505061</v>
+        <v>273.9977200133342</v>
       </c>
       <c r="H19" t="n">
-        <v>84.27501891706845</v>
+        <v>136.7370138797927</v>
       </c>
       <c r="I19" t="n">
-        <v>59.07441727780887</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="J19" t="n">
-        <v>167.5019518395607</v>
+        <v>167.5019518395602</v>
       </c>
       <c r="K19" t="n">
-        <v>477.7333870423686</v>
+        <v>477.7333870423683</v>
       </c>
       <c r="L19" t="n">
         <v>939.5347976315045</v>
@@ -5688,37 +5688,37 @@
         <v>1931.396129086616</v>
       </c>
       <c r="O19" t="n">
-        <v>2388.65737286692</v>
+        <v>2388.657372866919</v>
       </c>
       <c r="P19" t="n">
-        <v>2766.392406971583</v>
+        <v>2766.392406971582</v>
       </c>
       <c r="Q19" t="n">
-        <v>2953.720863890444</v>
+        <v>2953.720863890443</v>
       </c>
       <c r="R19" t="n">
-        <v>2953.720863890444</v>
+        <v>2953.720863890443</v>
       </c>
       <c r="S19" t="n">
-        <v>2796.396320541346</v>
+        <v>2796.396320541345</v>
       </c>
       <c r="T19" t="n">
-        <v>2556.197784943527</v>
+        <v>2556.197784943526</v>
       </c>
       <c r="U19" t="n">
-        <v>2276.053431918422</v>
+        <v>2276.053431918421</v>
       </c>
       <c r="V19" t="n">
-        <v>1994.341964526451</v>
+        <v>1994.34196452645</v>
       </c>
       <c r="W19" t="n">
-        <v>1719.489560698964</v>
+        <v>1771.951555661688</v>
       </c>
       <c r="X19" t="n">
-        <v>1476.925664144769</v>
+        <v>1529.387659107493</v>
       </c>
       <c r="Y19" t="n">
-        <v>1250.582895834511</v>
+        <v>1303.044890797235</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1618.1618705498</v>
+        <v>1337.076268927251</v>
       </c>
       <c r="C20" t="n">
-        <v>1191.2611405631</v>
+        <v>910.1755389405511</v>
       </c>
       <c r="D20" t="n">
-        <v>1191.2611405631</v>
+        <v>910.1755389405511</v>
       </c>
       <c r="E20" t="n">
-        <v>765.2842007109575</v>
+        <v>484.1985990884086</v>
       </c>
       <c r="F20" t="n">
-        <v>340.1600189003577</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="G20" t="n">
-        <v>340.1600189003577</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="H20" t="n">
-        <v>59.07441727780887</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="I20" t="n">
-        <v>86.79239881123065</v>
+        <v>86.79239881123064</v>
       </c>
       <c r="J20" t="n">
         <v>585.7143059331017</v>
       </c>
       <c r="K20" t="n">
-        <v>968.2054896246805</v>
+        <v>754.6133682430936</v>
       </c>
       <c r="L20" t="n">
-        <v>1183.73624779886</v>
+        <v>970.1441264172731</v>
       </c>
       <c r="M20" t="n">
-        <v>1428.702028183437</v>
+        <v>1215.10990680185</v>
       </c>
       <c r="N20" t="n">
-        <v>1678.381354860036</v>
+        <v>1464.789233478449</v>
       </c>
       <c r="O20" t="n">
-        <v>1911.979483015891</v>
+        <v>1698.387361634304</v>
       </c>
       <c r="P20" t="n">
-        <v>2105.743668273632</v>
+        <v>2429.433275447189</v>
       </c>
       <c r="Q20" t="n">
-        <v>2735.273337935477</v>
+        <v>2735.273337935476</v>
       </c>
       <c r="R20" t="n">
-        <v>2953.720863890444</v>
+        <v>2953.720863890443</v>
       </c>
       <c r="S20" t="n">
-        <v>2886.696426220228</v>
+        <v>2886.696426220227</v>
       </c>
       <c r="T20" t="n">
-        <v>2672.944452813471</v>
+        <v>2886.696426220227</v>
       </c>
       <c r="U20" t="n">
-        <v>2434.401584540983</v>
+        <v>2628.472616257847</v>
       </c>
       <c r="V20" t="n">
-        <v>2434.401584540983</v>
+        <v>2573.981902096144</v>
       </c>
       <c r="W20" t="n">
-        <v>2038.01023484133</v>
+        <v>2573.981902096144</v>
       </c>
       <c r="X20" t="n">
-        <v>2038.01023484133</v>
+        <v>2162.261903263891</v>
       </c>
       <c r="Y20" t="n">
-        <v>2038.01023484133</v>
+        <v>1756.924633218781</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>103.9824219337564</v>
       </c>
       <c r="H21" t="n">
-        <v>59.07441727780887</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="I21" t="n">
-        <v>72.65124436301308</v>
+        <v>96.1085502074249</v>
       </c>
       <c r="J21" t="n">
-        <v>133.4365751085948</v>
+        <v>156.8938809530066</v>
       </c>
       <c r="K21" t="n">
-        <v>250.0285461156286</v>
+        <v>273.4858519600405</v>
       </c>
       <c r="L21" t="n">
-        <v>414.3282524151906</v>
+        <v>437.7855582596025</v>
       </c>
       <c r="M21" t="n">
-        <v>609.2037512282752</v>
+        <v>632.6610570726871</v>
       </c>
       <c r="N21" t="n">
-        <v>811.5784294236067</v>
+        <v>835.0357352680186</v>
       </c>
       <c r="O21" t="n">
-        <v>993.1010061499506</v>
+        <v>1016.558311994362</v>
       </c>
       <c r="P21" t="n">
-        <v>1135.647254021362</v>
+        <v>1159.104559865774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1703.164277608879</v>
+        <v>1732.946126922192</v>
       </c>
       <c r="R21" t="n">
         <v>1838.539066417508</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1112.87892208517</v>
+        <v>1046.430350030652</v>
       </c>
       <c r="C22" t="n">
-        <v>940.9063589640857</v>
+        <v>874.4577869095683</v>
       </c>
       <c r="D22" t="n">
         <v>777.5895860908564</v>
@@ -5907,55 +5907,55 @@
         <v>136.7370138797927</v>
       </c>
       <c r="I22" t="n">
-        <v>59.07441727780887</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="J22" t="n">
-        <v>167.5019518395612</v>
+        <v>167.5019518395601</v>
       </c>
       <c r="K22" t="n">
-        <v>477.7333870423693</v>
+        <v>477.7333870423682</v>
       </c>
       <c r="L22" t="n">
-        <v>939.5347976315054</v>
+        <v>939.5347976315043</v>
       </c>
       <c r="M22" t="n">
-        <v>1443.655272539923</v>
+        <v>1443.655272539921</v>
       </c>
       <c r="N22" t="n">
-        <v>1931.396129086617</v>
+        <v>1931.396129086616</v>
       </c>
       <c r="O22" t="n">
-        <v>2388.65737286692</v>
+        <v>2388.657372866919</v>
       </c>
       <c r="P22" t="n">
-        <v>2766.392406971583</v>
+        <v>2766.392406971582</v>
       </c>
       <c r="Q22" t="n">
-        <v>2953.720863890444</v>
+        <v>2953.720863890443</v>
       </c>
       <c r="R22" t="n">
-        <v>2939.734286798651</v>
+        <v>2939.73428679865</v>
       </c>
       <c r="S22" t="n">
-        <v>2848.85831550407</v>
+        <v>2782.409743449553</v>
       </c>
       <c r="T22" t="n">
-        <v>2608.659779906251</v>
+        <v>2542.211207851734</v>
       </c>
       <c r="U22" t="n">
-        <v>2328.515426881146</v>
+        <v>2262.066854826629</v>
       </c>
       <c r="V22" t="n">
-        <v>2046.803959489175</v>
+        <v>1980.355387434658</v>
       </c>
       <c r="W22" t="n">
-        <v>1771.951555661688</v>
+        <v>1705.502983607171</v>
       </c>
       <c r="X22" t="n">
-        <v>1529.387659107493</v>
+        <v>1462.939087052976</v>
       </c>
       <c r="Y22" t="n">
-        <v>1303.044890797235</v>
+        <v>1236.596318742718</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2485.383801895992</v>
+        <v>2485.383801895994</v>
       </c>
       <c r="C23" t="n">
-        <v>2058.483071909292</v>
+        <v>2058.483071909294</v>
       </c>
       <c r="D23" t="n">
-        <v>1635.190451094293</v>
+        <v>1635.190451094294</v>
       </c>
       <c r="E23" t="n">
-        <v>1209.21351124215</v>
+        <v>1209.213511242151</v>
       </c>
       <c r="F23" t="n">
-        <v>784.0893294315504</v>
+        <v>784.0893294315507</v>
       </c>
       <c r="G23" t="n">
         <v>381.3890100361016</v>
@@ -5989,52 +5989,52 @@
         <v>128.0213899469746</v>
       </c>
       <c r="J23" t="n">
-        <v>626.9432970688457</v>
+        <v>626.9432970688458</v>
       </c>
       <c r="K23" t="n">
-        <v>1287.887260328682</v>
+        <v>1546.757622141198</v>
       </c>
       <c r="L23" t="n">
-        <v>1503.418018502861</v>
+        <v>1762.288380315377</v>
       </c>
       <c r="M23" t="n">
-        <v>2744.672697620577</v>
+        <v>2014.749655985054</v>
       </c>
       <c r="N23" t="n">
-        <v>2994.352024297176</v>
+        <v>2264.428982661653</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.950152453031</v>
+        <v>3380.188810730784</v>
       </c>
       <c r="P23" t="n">
-        <v>4167.193225060829</v>
+        <v>4319.431883338581</v>
       </c>
       <c r="Q23" t="n">
-        <v>4796.722894722675</v>
+        <v>4948.961553000428</v>
       </c>
       <c r="R23" t="n">
-        <v>5015.170420677641</v>
+        <v>5015.170420677642</v>
       </c>
       <c r="S23" t="n">
-        <v>4948.145983007425</v>
+        <v>4948.145983007426</v>
       </c>
       <c r="T23" t="n">
-        <v>4734.394009600668</v>
+        <v>4734.39400960067</v>
       </c>
       <c r="U23" t="n">
-        <v>4476.170199638288</v>
+        <v>4476.17019963829</v>
       </c>
       <c r="V23" t="n">
-        <v>4118.680784764538</v>
+        <v>4118.68078476454</v>
       </c>
       <c r="W23" t="n">
-        <v>3722.289435064885</v>
+        <v>3722.289435064886</v>
       </c>
       <c r="X23" t="n">
-        <v>3310.569436232632</v>
+        <v>3310.569436232634</v>
       </c>
       <c r="Y23" t="n">
-        <v>2905.232166187522</v>
+        <v>2905.232166187524</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>100.3034084135528</v>
       </c>
       <c r="I24" t="n">
-        <v>113.880235498757</v>
+        <v>137.3375413431689</v>
       </c>
       <c r="J24" t="n">
-        <v>174.6655662443387</v>
+        <v>490.2253645583417</v>
       </c>
       <c r="K24" t="n">
-        <v>291.2575372513726</v>
+        <v>606.8173355653755</v>
       </c>
       <c r="L24" t="n">
-        <v>1041.353245135807</v>
+        <v>771.1170418649375</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.228743948892</v>
+        <v>965.9925406780221</v>
       </c>
       <c r="N24" t="n">
-        <v>1438.603422144223</v>
+        <v>1168.367218873354</v>
       </c>
       <c r="O24" t="n">
-        <v>1620.125998870567</v>
+        <v>1349.889795599698</v>
       </c>
       <c r="P24" t="n">
-        <v>1762.672246741979</v>
+        <v>1492.436043471109</v>
       </c>
       <c r="Q24" t="n">
-        <v>1849.848769029529</v>
+        <v>1744.393268744623</v>
       </c>
       <c r="R24" t="n">
         <v>1879.768057553252</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1154.107913220914</v>
+        <v>1101.645918258188</v>
       </c>
       <c r="C25" t="n">
         <v>982.1353500998297</v>
@@ -6189,10 +6189,10 @@
         <v>1760.718551834707</v>
       </c>
       <c r="X25" t="n">
-        <v>1570.616650243237</v>
+        <v>1518.154655280512</v>
       </c>
       <c r="Y25" t="n">
-        <v>1344.273881932979</v>
+        <v>1291.811886970254</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2485.383801895994</v>
+        <v>2485.383801895993</v>
       </c>
       <c r="C26" t="n">
-        <v>2058.483071909294</v>
+        <v>2058.483071909293</v>
       </c>
       <c r="D26" t="n">
-        <v>1635.190451094295</v>
+        <v>1635.190451094293</v>
       </c>
       <c r="E26" t="n">
-        <v>1209.213511242152</v>
+        <v>1209.213511242151</v>
       </c>
       <c r="F26" t="n">
-        <v>784.0893294315522</v>
+        <v>784.0893294315507</v>
       </c>
       <c r="G26" t="n">
-        <v>381.3890100361031</v>
+        <v>381.3890100361016</v>
       </c>
       <c r="H26" t="n">
         <v>100.3034084135528</v>
@@ -6226,52 +6226,52 @@
         <v>128.0213899469746</v>
       </c>
       <c r="J26" t="n">
-        <v>626.9432970688457</v>
+        <v>626.9432970688458</v>
       </c>
       <c r="K26" t="n">
-        <v>1287.887260328682</v>
+        <v>1546.757622141198</v>
       </c>
       <c r="L26" t="n">
-        <v>1503.418018502861</v>
+        <v>1762.288380315377</v>
       </c>
       <c r="M26" t="n">
-        <v>2744.672697620577</v>
+        <v>2007.254160699955</v>
       </c>
       <c r="N26" t="n">
-        <v>2994.352024297176</v>
+        <v>2256.933487376553</v>
       </c>
       <c r="O26" t="n">
-        <v>3227.950152453031</v>
+        <v>3227.950152453032</v>
       </c>
       <c r="P26" t="n">
-        <v>4167.193225060829</v>
+        <v>4167.19322506083</v>
       </c>
       <c r="Q26" t="n">
-        <v>4796.722894722675</v>
+        <v>4796.722894722676</v>
       </c>
       <c r="R26" t="n">
-        <v>5015.170420677641</v>
+        <v>5015.170420677642</v>
       </c>
       <c r="S26" t="n">
-        <v>4948.145983007425</v>
+        <v>4948.145983007426</v>
       </c>
       <c r="T26" t="n">
-        <v>4734.394009600669</v>
+        <v>4734.394009600668</v>
       </c>
       <c r="U26" t="n">
-        <v>4476.17019963829</v>
+        <v>4476.170199638289</v>
       </c>
       <c r="V26" t="n">
-        <v>4118.68078476454</v>
+        <v>4118.680784764539</v>
       </c>
       <c r="W26" t="n">
-        <v>3722.289435064887</v>
+        <v>3722.289435064885</v>
       </c>
       <c r="X26" t="n">
-        <v>3310.569436232634</v>
+        <v>3310.569436232633</v>
       </c>
       <c r="Y26" t="n">
-        <v>2905.232166187524</v>
+        <v>2905.232166187523</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>100.3034084135528</v>
       </c>
       <c r="I27" t="n">
-        <v>113.880235498757</v>
+        <v>137.3375413431689</v>
       </c>
       <c r="J27" t="n">
-        <v>174.6655662443387</v>
+        <v>490.2253645583417</v>
       </c>
       <c r="K27" t="n">
-        <v>291.2575372513726</v>
+        <v>606.8173355653755</v>
       </c>
       <c r="L27" t="n">
-        <v>455.5572435509346</v>
+        <v>771.1170418649375</v>
       </c>
       <c r="M27" t="n">
-        <v>650.4327423640192</v>
+        <v>965.9925406780221</v>
       </c>
       <c r="N27" t="n">
-        <v>1438.603422144223</v>
+        <v>1168.367218873354</v>
       </c>
       <c r="O27" t="n">
-        <v>1620.125998870567</v>
+        <v>1349.889795599698</v>
       </c>
       <c r="P27" t="n">
-        <v>1762.672246741979</v>
+        <v>1492.436043471109</v>
       </c>
       <c r="Q27" t="n">
-        <v>1849.848769029529</v>
+        <v>1744.393268744623</v>
       </c>
       <c r="R27" t="n">
         <v>1879.768057553252</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1154.107913220914</v>
+        <v>1101.645918258188</v>
       </c>
       <c r="C28" t="n">
-        <v>982.1353500998297</v>
+        <v>929.6733551371044</v>
       </c>
       <c r="D28" t="n">
         <v>818.8185772266004</v>
@@ -6408,28 +6408,28 @@
         <v>2994.949855026186</v>
       </c>
       <c r="R28" t="n">
-        <v>2980.963277934394</v>
+        <v>2994.949855026186</v>
       </c>
       <c r="S28" t="n">
-        <v>2823.638734585297</v>
+        <v>2837.625311677089</v>
       </c>
       <c r="T28" t="n">
-        <v>2583.440198987478</v>
+        <v>2597.42677607927</v>
       </c>
       <c r="U28" t="n">
-        <v>2303.295845962373</v>
+        <v>2317.282423054165</v>
       </c>
       <c r="V28" t="n">
-        <v>2088.032950624919</v>
+        <v>2035.570955662194</v>
       </c>
       <c r="W28" t="n">
-        <v>1813.180546797432</v>
+        <v>1760.718551834707</v>
       </c>
       <c r="X28" t="n">
-        <v>1570.616650243237</v>
+        <v>1518.154655280512</v>
       </c>
       <c r="Y28" t="n">
-        <v>1344.273881932979</v>
+        <v>1291.811886970254</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>2058.483071909293</v>
       </c>
       <c r="D29" t="n">
-        <v>1635.190451094294</v>
+        <v>1635.190451094293</v>
       </c>
       <c r="E29" t="n">
         <v>1209.213511242151</v>
       </c>
       <c r="F29" t="n">
-        <v>784.0893294315515</v>
+        <v>784.0893294315507</v>
       </c>
       <c r="G29" t="n">
         <v>381.3890100361016</v>
@@ -6463,46 +6463,46 @@
         <v>128.0213899469746</v>
       </c>
       <c r="J29" t="n">
-        <v>626.9432970688457</v>
+        <v>626.9432970688458</v>
       </c>
       <c r="K29" t="n">
         <v>1546.757622141198</v>
       </c>
       <c r="L29" t="n">
-        <v>1762.288380315377</v>
+        <v>2651.945575513753</v>
       </c>
       <c r="M29" t="n">
-        <v>2744.672697620577</v>
+        <v>2896.91135589833</v>
       </c>
       <c r="N29" t="n">
-        <v>2994.352024297176</v>
+        <v>3146.590682574928</v>
       </c>
       <c r="O29" t="n">
-        <v>3227.950152453031</v>
+        <v>3380.188810730784</v>
       </c>
       <c r="P29" t="n">
-        <v>4167.193225060829</v>
+        <v>4319.431883338581</v>
       </c>
       <c r="Q29" t="n">
-        <v>4796.722894722675</v>
+        <v>4948.961553000428</v>
       </c>
       <c r="R29" t="n">
-        <v>5015.170420677641</v>
+        <v>5015.170420677642</v>
       </c>
       <c r="S29" t="n">
-        <v>4948.145983007425</v>
+        <v>4948.145983007426</v>
       </c>
       <c r="T29" t="n">
-        <v>4734.394009600669</v>
+        <v>4734.39400960067</v>
       </c>
       <c r="U29" t="n">
-        <v>4476.170199638289</v>
+        <v>4476.170199638291</v>
       </c>
       <c r="V29" t="n">
-        <v>4118.680784764539</v>
+        <v>4118.68078476454</v>
       </c>
       <c r="W29" t="n">
-        <v>3722.289435064886</v>
+        <v>3722.289435064888</v>
       </c>
       <c r="X29" t="n">
         <v>3310.569436232633</v>
@@ -6539,31 +6539,31 @@
         <v>100.3034084135528</v>
       </c>
       <c r="I30" t="n">
-        <v>113.880235498757</v>
+        <v>137.3375413431689</v>
       </c>
       <c r="J30" t="n">
-        <v>174.6655662443387</v>
+        <v>490.2253645583417</v>
       </c>
       <c r="K30" t="n">
-        <v>291.2575372513726</v>
+        <v>771.5980385513393</v>
       </c>
       <c r="L30" t="n">
-        <v>455.5572435509346</v>
+        <v>935.8977448509013</v>
       </c>
       <c r="M30" t="n">
-        <v>1236.228743948892</v>
+        <v>1130.773243663986</v>
       </c>
       <c r="N30" t="n">
-        <v>1438.603422144223</v>
+        <v>1333.147921859318</v>
       </c>
       <c r="O30" t="n">
-        <v>1620.125998870567</v>
+        <v>1514.670498585662</v>
       </c>
       <c r="P30" t="n">
-        <v>1762.672246741979</v>
+        <v>1657.216746457073</v>
       </c>
       <c r="Q30" t="n">
-        <v>1849.848769029529</v>
+        <v>1744.393268744623</v>
       </c>
       <c r="R30" t="n">
         <v>1879.768057553252</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1087.659341166396</v>
+        <v>1101.645918258188</v>
       </c>
       <c r="C31" t="n">
-        <v>915.6867780453122</v>
+        <v>929.6733551371044</v>
       </c>
       <c r="D31" t="n">
-        <v>752.3700051720829</v>
+        <v>766.3565822638751</v>
       </c>
       <c r="E31" t="n">
-        <v>586.1617993249364</v>
+        <v>652.6103713794539</v>
       </c>
       <c r="F31" t="n">
-        <v>414.3000250994968</v>
+        <v>480.7485971540143</v>
       </c>
       <c r="G31" t="n">
         <v>315.2267111490782</v>
@@ -6645,28 +6645,28 @@
         <v>2994.949855026186</v>
       </c>
       <c r="R31" t="n">
-        <v>2980.963277934394</v>
+        <v>2994.949855026186</v>
       </c>
       <c r="S31" t="n">
-        <v>2823.638734585297</v>
+        <v>2837.625311677089</v>
       </c>
       <c r="T31" t="n">
-        <v>2583.440198987478</v>
+        <v>2597.42677607927</v>
       </c>
       <c r="U31" t="n">
-        <v>2303.295845962373</v>
+        <v>2317.282423054165</v>
       </c>
       <c r="V31" t="n">
-        <v>2021.584378570402</v>
+        <v>2035.570955662194</v>
       </c>
       <c r="W31" t="n">
-        <v>1746.731974742915</v>
+        <v>1760.718551834707</v>
       </c>
       <c r="X31" t="n">
-        <v>1504.16807818872</v>
+        <v>1518.154655280512</v>
       </c>
       <c r="Y31" t="n">
-        <v>1277.825309878462</v>
+        <v>1291.811886970254</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>2058.483071909294</v>
       </c>
       <c r="D32" t="n">
-        <v>1635.190451094295</v>
+        <v>1635.190451094294</v>
       </c>
       <c r="E32" t="n">
-        <v>1209.213511242152</v>
+        <v>1209.213511242151</v>
       </c>
       <c r="F32" t="n">
-        <v>784.0893294315522</v>
+        <v>784.0893294315507</v>
       </c>
       <c r="G32" t="n">
         <v>381.3890100361016</v>
@@ -6700,37 +6700,37 @@
         <v>128.0213899469746</v>
       </c>
       <c r="J32" t="n">
-        <v>626.9432970688457</v>
+        <v>626.9432970688458</v>
       </c>
       <c r="K32" t="n">
-        <v>1402.014459148545</v>
+        <v>1546.757622141198</v>
       </c>
       <c r="L32" t="n">
-        <v>1617.545217322725</v>
+        <v>1762.288380315377</v>
       </c>
       <c r="M32" t="n">
-        <v>1862.510997707302</v>
+        <v>2007.254160699955</v>
       </c>
       <c r="N32" t="n">
-        <v>2112.1903243839</v>
+        <v>2256.933487376553</v>
       </c>
       <c r="O32" t="n">
-        <v>3227.950152453031</v>
+        <v>3227.950152453032</v>
       </c>
       <c r="P32" t="n">
-        <v>4167.193225060829</v>
+        <v>4167.19322506083</v>
       </c>
       <c r="Q32" t="n">
-        <v>4796.722894722675</v>
+        <v>4796.722894722676</v>
       </c>
       <c r="R32" t="n">
-        <v>5015.170420677641</v>
+        <v>5015.170420677642</v>
       </c>
       <c r="S32" t="n">
-        <v>4948.145983007425</v>
+        <v>4948.145983007426</v>
       </c>
       <c r="T32" t="n">
-        <v>4734.394009600669</v>
+        <v>4734.39400960067</v>
       </c>
       <c r="U32" t="n">
         <v>4476.17019963829</v>
@@ -6739,7 +6739,7 @@
         <v>4118.68078476454</v>
       </c>
       <c r="W32" t="n">
-        <v>3722.289435064887</v>
+        <v>3722.289435064886</v>
       </c>
       <c r="X32" t="n">
         <v>3310.569436232634</v>
@@ -6776,31 +6776,31 @@
         <v>100.3034084135528</v>
       </c>
       <c r="I33" t="n">
-        <v>113.880235498757</v>
+        <v>137.3375413431689</v>
       </c>
       <c r="J33" t="n">
-        <v>174.6655662443387</v>
+        <v>490.2253645583417</v>
       </c>
       <c r="K33" t="n">
-        <v>291.2575372513726</v>
+        <v>771.5980385513393</v>
       </c>
       <c r="L33" t="n">
-        <v>455.5572435509346</v>
+        <v>935.8977448509013</v>
       </c>
       <c r="M33" t="n">
-        <v>650.4327423640192</v>
+        <v>1130.773243663986</v>
       </c>
       <c r="N33" t="n">
-        <v>1438.603422144223</v>
+        <v>1333.147921859318</v>
       </c>
       <c r="O33" t="n">
-        <v>1620.125998870567</v>
+        <v>1514.670498585662</v>
       </c>
       <c r="P33" t="n">
-        <v>1762.672246741979</v>
+        <v>1657.216746457073</v>
       </c>
       <c r="Q33" t="n">
-        <v>1849.848769029529</v>
+        <v>1744.393268744623</v>
       </c>
       <c r="R33" t="n">
         <v>1879.768057553252</v>
@@ -6837,13 +6837,13 @@
         <v>1101.645918258188</v>
       </c>
       <c r="C34" t="n">
-        <v>982.1353500998297</v>
+        <v>929.6733551371044</v>
       </c>
       <c r="D34" t="n">
-        <v>818.8185772266004</v>
+        <v>766.3565822638751</v>
       </c>
       <c r="E34" t="n">
-        <v>652.6103713794539</v>
+        <v>600.1483764167286</v>
       </c>
       <c r="F34" t="n">
         <v>480.7485971540143</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1658.736713396791</v>
+        <v>1660.839878277687</v>
       </c>
       <c r="C35" t="n">
-        <v>1231.835983410091</v>
+        <v>1233.939148290988</v>
       </c>
       <c r="D35" t="n">
-        <v>808.5433625950911</v>
+        <v>1233.939148290988</v>
       </c>
       <c r="E35" t="n">
-        <v>808.5433625950911</v>
+        <v>807.9622084388451</v>
       </c>
       <c r="F35" t="n">
-        <v>383.4191807844913</v>
+        <v>382.8380266282453</v>
       </c>
       <c r="G35" t="n">
-        <v>340.1600189003576</v>
+        <v>59.07441727780886</v>
       </c>
       <c r="H35" t="n">
         <v>59.07441727780886</v>
       </c>
       <c r="I35" t="n">
-        <v>86.79239881123064</v>
+        <v>86.79239881123067</v>
       </c>
       <c r="J35" t="n">
-        <v>193.9850872254756</v>
+        <v>343.965412897137</v>
       </c>
       <c r="K35" t="n">
-        <v>362.8841495354675</v>
+        <v>1075.011326710022</v>
       </c>
       <c r="L35" t="n">
-        <v>1093.930063348352</v>
+        <v>1290.542084884201</v>
       </c>
       <c r="M35" t="n">
-        <v>1824.975977161237</v>
+        <v>1535.507865268778</v>
       </c>
       <c r="N35" t="n">
-        <v>2074.655303837835</v>
+        <v>1785.187191945377</v>
       </c>
       <c r="O35" t="n">
-        <v>2308.253431993691</v>
+        <v>2018.785320101232</v>
       </c>
       <c r="P35" t="n">
         <v>2749.831233914117</v>
@@ -6967,22 +6967,22 @@
         <v>2886.696426220227</v>
       </c>
       <c r="T35" t="n">
-        <v>2886.696426220227</v>
+        <v>2672.944452813471</v>
       </c>
       <c r="U35" t="n">
-        <v>2886.696426220227</v>
+        <v>2414.720642851091</v>
       </c>
       <c r="V35" t="n">
-        <v>2886.696426220227</v>
+        <v>2057.23122797734</v>
       </c>
       <c r="W35" t="n">
-        <v>2490.305076520573</v>
+        <v>1660.839878277687</v>
       </c>
       <c r="X35" t="n">
-        <v>2078.585077688321</v>
+        <v>1660.839878277687</v>
       </c>
       <c r="Y35" t="n">
-        <v>2078.585077688321</v>
+        <v>1660.839878277687</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>59.07441727780886</v>
       </c>
       <c r="I36" t="n">
-        <v>72.65124436301306</v>
+        <v>96.10855020742491</v>
       </c>
       <c r="J36" t="n">
-        <v>133.4365751085948</v>
+        <v>448.9963734225977</v>
       </c>
       <c r="K36" t="n">
-        <v>250.0285461156286</v>
+        <v>565.5883444296315</v>
       </c>
       <c r="L36" t="n">
-        <v>414.3282524151906</v>
+        <v>729.8880507291935</v>
       </c>
       <c r="M36" t="n">
-        <v>1145.374166228075</v>
+        <v>924.7635495422783</v>
       </c>
       <c r="N36" t="n">
-        <v>1347.748844423407</v>
+        <v>1127.13822773761</v>
       </c>
       <c r="O36" t="n">
-        <v>1529.271421149751</v>
+        <v>1308.660804463954</v>
       </c>
       <c r="P36" t="n">
-        <v>1721.443255606235</v>
+        <v>1451.207052335365</v>
       </c>
       <c r="Q36" t="n">
-        <v>1808.619777893785</v>
+        <v>1703.164277608879</v>
       </c>
       <c r="R36" t="n">
         <v>1838.539066417508</v>
@@ -7095,46 +7095,46 @@
         <v>59.07441727780886</v>
       </c>
       <c r="J37" t="n">
-        <v>167.5019518395602</v>
+        <v>167.5019518395607</v>
       </c>
       <c r="K37" t="n">
-        <v>477.7333870423683</v>
+        <v>477.7333870423686</v>
       </c>
       <c r="L37" t="n">
-        <v>939.534797631504</v>
+        <v>939.5347976315047</v>
       </c>
       <c r="M37" t="n">
-        <v>1443.655272539921</v>
+        <v>1443.655272539922</v>
       </c>
       <c r="N37" t="n">
-        <v>1931.396129086615</v>
+        <v>1931.396129086616</v>
       </c>
       <c r="O37" t="n">
-        <v>2388.657372866919</v>
+        <v>2388.65737286692</v>
       </c>
       <c r="P37" t="n">
-        <v>2766.392406971582</v>
+        <v>2766.392406971583</v>
       </c>
       <c r="Q37" t="n">
         <v>2953.720863890443</v>
       </c>
       <c r="R37" t="n">
-        <v>2939.73428679865</v>
+        <v>2953.720863890443</v>
       </c>
       <c r="S37" t="n">
-        <v>2782.409743449553</v>
+        <v>2796.396320541346</v>
       </c>
       <c r="T37" t="n">
-        <v>2542.211207851734</v>
+        <v>2556.197784943527</v>
       </c>
       <c r="U37" t="n">
-        <v>2328.515426881146</v>
+        <v>2276.053431918422</v>
       </c>
       <c r="V37" t="n">
-        <v>2046.803959489175</v>
+        <v>1994.341964526451</v>
       </c>
       <c r="W37" t="n">
-        <v>1771.951555661688</v>
+        <v>1719.489560698963</v>
       </c>
       <c r="X37" t="n">
         <v>1529.387659107493</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1406.895632221555</v>
+        <v>2163.0692091377</v>
       </c>
       <c r="C38" t="n">
-        <v>1406.895632221555</v>
+        <v>1736.168479151</v>
       </c>
       <c r="D38" t="n">
-        <v>1406.895632221555</v>
+        <v>1312.875858336</v>
       </c>
       <c r="E38" t="n">
-        <v>1167.984520106407</v>
+        <v>886.8989184838578</v>
       </c>
       <c r="F38" t="n">
-        <v>742.8603382958067</v>
+        <v>461.774736673258</v>
       </c>
       <c r="G38" t="n">
-        <v>340.1600189003576</v>
+        <v>59.07441727780887</v>
       </c>
       <c r="H38" t="n">
-        <v>59.07441727780886</v>
+        <v>59.07441727780887</v>
       </c>
       <c r="I38" t="n">
-        <v>86.79239881123064</v>
+        <v>86.79239881123067</v>
       </c>
       <c r="J38" t="n">
-        <v>193.9850872254756</v>
+        <v>585.7143059331017</v>
       </c>
       <c r="K38" t="n">
-        <v>362.8841495354675</v>
+        <v>754.6133682430936</v>
       </c>
       <c r="L38" t="n">
-        <v>578.414907709647</v>
+        <v>970.1441264172732</v>
       </c>
       <c r="M38" t="n">
-        <v>823.3806880942241</v>
+        <v>1215.10990680185</v>
       </c>
       <c r="N38" t="n">
-        <v>1073.060014770823</v>
+        <v>1464.789233478449</v>
       </c>
       <c r="O38" t="n">
-        <v>1374.697754460746</v>
+        <v>1698.387361634305</v>
       </c>
       <c r="P38" t="n">
-        <v>2105.743668273631</v>
+        <v>2257.982326551382</v>
       </c>
       <c r="Q38" t="n">
-        <v>2735.273337935476</v>
+        <v>2887.511996213228</v>
       </c>
       <c r="R38" t="n">
-        <v>2953.720863890443</v>
+        <v>2953.720863890444</v>
       </c>
       <c r="S38" t="n">
-        <v>2886.696426220227</v>
+        <v>2886.696426220228</v>
       </c>
       <c r="T38" t="n">
-        <v>2886.696426220227</v>
+        <v>2886.696426220228</v>
       </c>
       <c r="U38" t="n">
-        <v>2628.472616257847</v>
+        <v>2886.696426220228</v>
       </c>
       <c r="V38" t="n">
-        <v>2628.472616257847</v>
+        <v>2886.696426220228</v>
       </c>
       <c r="W38" t="n">
-        <v>2232.081266558194</v>
+        <v>2886.696426220228</v>
       </c>
       <c r="X38" t="n">
-        <v>2232.081266558194</v>
+        <v>2568.40647918281</v>
       </c>
       <c r="Y38" t="n">
-        <v>1826.743996513085</v>
+        <v>2163.0692091377</v>
       </c>
     </row>
     <row r="39">
@@ -7247,19 +7247,19 @@
         <v>103.9824219337564</v>
       </c>
       <c r="H39" t="n">
-        <v>59.07441727780886</v>
+        <v>59.07441727780887</v>
       </c>
       <c r="I39" t="n">
-        <v>72.65124436301306</v>
+        <v>96.10855020742491</v>
       </c>
       <c r="J39" t="n">
-        <v>425.5390675781858</v>
+        <v>448.9963734225977</v>
       </c>
       <c r="K39" t="n">
-        <v>730.3690474155958</v>
+        <v>730.3690474155954</v>
       </c>
       <c r="L39" t="n">
-        <v>894.6687537151578</v>
+        <v>894.6687537151574</v>
       </c>
       <c r="M39" t="n">
         <v>1089.544252528242</v>
@@ -7311,10 +7311,10 @@
         <v>1060.416927122445</v>
       </c>
       <c r="C40" t="n">
-        <v>888.4443640013606</v>
+        <v>888.4443640013615</v>
       </c>
       <c r="D40" t="n">
-        <v>725.1275911281313</v>
+        <v>777.5895860908564</v>
       </c>
       <c r="E40" t="n">
         <v>611.3813802437099</v>
@@ -7329,16 +7329,16 @@
         <v>136.7370138797927</v>
       </c>
       <c r="I40" t="n">
-        <v>59.07441727780886</v>
+        <v>59.07441727780887</v>
       </c>
       <c r="J40" t="n">
-        <v>167.5019518395602</v>
+        <v>167.5019518395607</v>
       </c>
       <c r="K40" t="n">
-        <v>477.7333870423683</v>
+        <v>477.7333870423688</v>
       </c>
       <c r="L40" t="n">
-        <v>939.5347976315045</v>
+        <v>939.5347976315049</v>
       </c>
       <c r="M40" t="n">
         <v>1443.655272539922</v>
@@ -7347,37 +7347,37 @@
         <v>1931.396129086616</v>
       </c>
       <c r="O40" t="n">
-        <v>2388.657372866919</v>
+        <v>2388.65737286692</v>
       </c>
       <c r="P40" t="n">
-        <v>2766.392406971582</v>
+        <v>2766.392406971583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2953.720863890443</v>
+        <v>2953.720863890444</v>
       </c>
       <c r="R40" t="n">
-        <v>2953.720863890443</v>
+        <v>2953.720863890444</v>
       </c>
       <c r="S40" t="n">
-        <v>2796.396320541345</v>
+        <v>2796.396320541346</v>
       </c>
       <c r="T40" t="n">
-        <v>2556.197784943526</v>
+        <v>2556.197784943527</v>
       </c>
       <c r="U40" t="n">
-        <v>2276.053431918421</v>
+        <v>2276.053431918422</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.34196452645</v>
+        <v>1994.341964526451</v>
       </c>
       <c r="W40" t="n">
-        <v>1719.489560698963</v>
+        <v>1719.489560698964</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.925664144768</v>
+        <v>1476.925664144769</v>
       </c>
       <c r="Y40" t="n">
-        <v>1250.58289583451</v>
+        <v>1250.582895834511</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1296.371966143518</v>
+        <v>1040.555201153978</v>
       </c>
       <c r="C41" t="n">
-        <v>869.4712361568183</v>
+        <v>1040.555201153978</v>
       </c>
       <c r="D41" t="n">
-        <v>446.1786153418186</v>
+        <v>750.5408374210608</v>
       </c>
       <c r="E41" t="n">
-        <v>446.1786153418186</v>
+        <v>324.5638975689184</v>
       </c>
       <c r="F41" t="n">
-        <v>446.1786153418186</v>
+        <v>324.5638975689184</v>
       </c>
       <c r="G41" t="n">
-        <v>43.47829594636953</v>
+        <v>324.5638975689184</v>
       </c>
       <c r="H41" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="I41" t="n">
-        <v>71.19627747979132</v>
+        <v>71.19627747979139</v>
       </c>
       <c r="J41" t="n">
-        <v>263.2247763459952</v>
+        <v>263.2247763459969</v>
       </c>
       <c r="K41" t="n">
-        <v>432.1238386559871</v>
+        <v>432.1238386559888</v>
       </c>
       <c r="L41" t="n">
-        <v>647.6545968301666</v>
+        <v>647.6545968301684</v>
       </c>
       <c r="M41" t="n">
-        <v>892.6203772147437</v>
+        <v>892.6203772147455</v>
       </c>
       <c r="N41" t="n">
-        <v>1142.299703891342</v>
+        <v>1142.299703891344</v>
       </c>
       <c r="O41" t="n">
-        <v>1375.897832047198</v>
+        <v>1375.8978320472</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.662017304938</v>
+        <v>1569.66201730494</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.705929641261</v>
+        <v>2107.705929641264</v>
       </c>
       <c r="R41" t="n">
-        <v>2173.914797318476</v>
+        <v>2173.914797318479</v>
       </c>
       <c r="S41" t="n">
-        <v>2173.914797318476</v>
+        <v>2106.890359648263</v>
       </c>
       <c r="T41" t="n">
-        <v>2173.914797318476</v>
+        <v>2106.890359648263</v>
       </c>
       <c r="U41" t="n">
-        <v>2173.914797318476</v>
+        <v>1848.666549685884</v>
       </c>
       <c r="V41" t="n">
-        <v>2173.914797318476</v>
+        <v>1848.666549685884</v>
       </c>
       <c r="W41" t="n">
-        <v>2121.557600480158</v>
+        <v>1452.275199986231</v>
       </c>
       <c r="X41" t="n">
-        <v>2121.557600480158</v>
+        <v>1040.555201153978</v>
       </c>
       <c r="Y41" t="n">
-        <v>1716.220330435048</v>
+        <v>1040.555201153978</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.2568935838033</v>
+        <v>601.2568935838034</v>
       </c>
       <c r="C42" t="n">
-        <v>483.750990101308</v>
+        <v>483.7509901013082</v>
       </c>
       <c r="D42" t="n">
-        <v>379.9110316165931</v>
+        <v>379.9110316165932</v>
       </c>
       <c r="E42" t="n">
-        <v>275.2090978895303</v>
+        <v>275.2090978895304</v>
       </c>
       <c r="F42" t="n">
         <v>181.5632675724345</v>
       </c>
       <c r="G42" t="n">
-        <v>88.38630060231705</v>
+        <v>88.38630060231711</v>
       </c>
       <c r="H42" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="I42" t="n">
-        <v>57.05512303157373</v>
+        <v>80.51242887598562</v>
       </c>
       <c r="J42" t="n">
-        <v>117.8404537771554</v>
+        <v>433.4002520911584</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4324247841893</v>
+        <v>549.9922230981922</v>
       </c>
       <c r="L42" t="n">
-        <v>398.7321310837513</v>
+        <v>714.2919293977542</v>
       </c>
       <c r="M42" t="n">
-        <v>593.6076298968359</v>
+        <v>909.1674282108388</v>
       </c>
       <c r="N42" t="n">
-        <v>795.9823080921674</v>
+        <v>1111.54210640617</v>
       </c>
       <c r="O42" t="n">
-        <v>1167.803221938473</v>
+        <v>1293.064683132514</v>
       </c>
       <c r="P42" t="n">
-        <v>1705.847134274796</v>
+        <v>1435.610931003926</v>
       </c>
       <c r="Q42" t="n">
-        <v>1793.023656562345</v>
+        <v>1687.56815627744</v>
       </c>
       <c r="R42" t="n">
         <v>1822.942945086069</v>
       </c>
       <c r="S42" t="n">
-        <v>1757.904962471883</v>
+        <v>1757.904962471884</v>
       </c>
       <c r="T42" t="n">
         <v>1619.559165464667</v>
@@ -7526,16 +7526,16 @@
         <v>1434.848653911427</v>
       </c>
       <c r="V42" t="n">
-        <v>1229.875515050693</v>
+        <v>1229.875515050694</v>
       </c>
       <c r="W42" t="n">
         <v>1033.354137883911</v>
       </c>
       <c r="X42" t="n">
-        <v>869.8767916505736</v>
+        <v>869.8767916505738</v>
       </c>
       <c r="Y42" t="n">
-        <v>730.183903003866</v>
+        <v>730.1839030038661</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>280.6108605504782</v>
+        <v>562.3223279424521</v>
       </c>
       <c r="C43" t="n">
-        <v>108.6382974293942</v>
+        <v>390.3497648213681</v>
       </c>
       <c r="D43" t="n">
-        <v>108.6382974293942</v>
+        <v>390.3497648213681</v>
       </c>
       <c r="E43" t="n">
-        <v>108.6382974293942</v>
+        <v>390.3497648213681</v>
       </c>
       <c r="F43" t="n">
-        <v>43.47829594636953</v>
+        <v>390.3497648213681</v>
       </c>
       <c r="G43" t="n">
-        <v>43.47829594636953</v>
+        <v>224.827878816432</v>
       </c>
       <c r="H43" t="n">
-        <v>43.47829594636953</v>
+        <v>121.1408925483534</v>
       </c>
       <c r="I43" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="J43" t="n">
         <v>151.9058305081209</v>
       </c>
       <c r="K43" t="n">
-        <v>462.1372657109289</v>
+        <v>214.8546565969069</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5497827089001</v>
+        <v>676.6560671860431</v>
       </c>
       <c r="M43" t="n">
-        <v>1051.670257617317</v>
+        <v>767.2410616316388</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.411114164011</v>
+        <v>1254.981918178333</v>
       </c>
       <c r="O43" t="n">
-        <v>1618.970033641112</v>
+        <v>1608.851306294956</v>
       </c>
       <c r="P43" t="n">
-        <v>1986.586340399616</v>
+        <v>1986.586340399619</v>
       </c>
       <c r="Q43" t="n">
-        <v>2173.914797318476</v>
+        <v>2173.914797318479</v>
       </c>
       <c r="R43" t="n">
-        <v>2173.914797318476</v>
+        <v>2173.914797318479</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.590253969379</v>
+        <v>2016.590253969382</v>
       </c>
       <c r="T43" t="n">
-        <v>1776.39171837156</v>
+        <v>1776.391718371563</v>
       </c>
       <c r="U43" t="n">
-        <v>1496.247365346455</v>
+        <v>1496.247365346458</v>
       </c>
       <c r="V43" t="n">
-        <v>1214.535897954484</v>
+        <v>1496.247365346458</v>
       </c>
       <c r="W43" t="n">
-        <v>939.6834941269967</v>
+        <v>1221.394961518971</v>
       </c>
       <c r="X43" t="n">
-        <v>697.1195975728018</v>
+        <v>978.8310649647757</v>
       </c>
       <c r="Y43" t="n">
-        <v>470.7768292625439</v>
+        <v>752.4882966545177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1695.170360816008</v>
+        <v>1602.673409037972</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.269630829308</v>
+        <v>1175.772679051272</v>
       </c>
       <c r="D44" t="n">
-        <v>844.9770100143082</v>
+        <v>752.4800582362723</v>
       </c>
       <c r="E44" t="n">
-        <v>468.6024777569693</v>
+        <v>468.6024777569694</v>
       </c>
       <c r="F44" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="G44" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="H44" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="I44" t="n">
-        <v>71.19627747979132</v>
+        <v>71.19627747979139</v>
       </c>
       <c r="J44" t="n">
         <v>570.1181846016625</v>
@@ -7654,7 +7654,7 @@
         <v>739.0172469116544</v>
       </c>
       <c r="L44" t="n">
-        <v>954.5480050858339</v>
+        <v>954.548005085834</v>
       </c>
       <c r="M44" t="n">
         <v>1199.513785470411</v>
@@ -7666,34 +7666,34 @@
         <v>1682.791240302865</v>
       </c>
       <c r="P44" t="n">
-        <v>1876.555425560605</v>
+        <v>1876.555425560606</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.705929641261</v>
+        <v>2014.236187859717</v>
       </c>
       <c r="R44" t="n">
-        <v>2173.914797318476</v>
+        <v>2173.914797318479</v>
       </c>
       <c r="S44" t="n">
-        <v>2106.890359648261</v>
+        <v>2173.914797318479</v>
       </c>
       <c r="T44" t="n">
-        <v>2106.890359648261</v>
+        <v>1960.162823911722</v>
       </c>
       <c r="U44" t="n">
-        <v>2106.890359648261</v>
+        <v>1960.162823911722</v>
       </c>
       <c r="V44" t="n">
-        <v>2106.890359648261</v>
+        <v>1602.673409037972</v>
       </c>
       <c r="W44" t="n">
-        <v>2106.890359648261</v>
+        <v>1602.673409037972</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.170360816008</v>
+        <v>1602.673409037972</v>
       </c>
       <c r="Y44" t="n">
-        <v>1695.170360816008</v>
+        <v>1602.673409037972</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.2568935838033</v>
+        <v>601.2568935838034</v>
       </c>
       <c r="C45" t="n">
-        <v>483.750990101308</v>
+        <v>483.7509901013082</v>
       </c>
       <c r="D45" t="n">
-        <v>379.9110316165931</v>
+        <v>379.9110316165932</v>
       </c>
       <c r="E45" t="n">
-        <v>275.2090978895303</v>
+        <v>275.2090978895304</v>
       </c>
       <c r="F45" t="n">
         <v>181.5632675724345</v>
       </c>
       <c r="G45" t="n">
-        <v>88.38630060231705</v>
+        <v>88.38630060231711</v>
       </c>
       <c r="H45" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="I45" t="n">
-        <v>80.51242887598556</v>
+        <v>80.51242887598562</v>
       </c>
       <c r="J45" t="n">
-        <v>141.2977596215673</v>
+        <v>433.4002520911584</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8897306286011</v>
+        <v>549.9922230981922</v>
       </c>
       <c r="L45" t="n">
-        <v>422.1894369281631</v>
+        <v>714.2919293977542</v>
       </c>
       <c r="M45" t="n">
-        <v>617.0649357412477</v>
+        <v>909.1674282108388</v>
       </c>
       <c r="N45" t="n">
-        <v>819.4396139365792</v>
+        <v>1111.54210640617</v>
       </c>
       <c r="O45" t="n">
-        <v>1000.962190662923</v>
+        <v>1293.064683132514</v>
       </c>
       <c r="P45" t="n">
-        <v>1149.524243941117</v>
+        <v>1435.610931003926</v>
       </c>
       <c r="Q45" t="n">
         <v>1687.56815627744</v>
@@ -7754,7 +7754,7 @@
         <v>1822.942945086069</v>
       </c>
       <c r="S45" t="n">
-        <v>1757.904962471883</v>
+        <v>1757.904962471884</v>
       </c>
       <c r="T45" t="n">
         <v>1619.559165464667</v>
@@ -7763,16 +7763,16 @@
         <v>1434.848653911427</v>
       </c>
       <c r="V45" t="n">
-        <v>1229.875515050693</v>
+        <v>1229.875515050694</v>
       </c>
       <c r="W45" t="n">
         <v>1033.354137883911</v>
       </c>
       <c r="X45" t="n">
-        <v>869.8767916505736</v>
+        <v>869.8767916505738</v>
       </c>
       <c r="Y45" t="n">
-        <v>730.183903003866</v>
+        <v>730.1839030038661</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>280.6108605504782</v>
+        <v>931.0745949065839</v>
       </c>
       <c r="C46" t="n">
-        <v>280.6108605504782</v>
+        <v>759.1020317854999</v>
       </c>
       <c r="D46" t="n">
-        <v>117.2940876772489</v>
+        <v>595.7852589122706</v>
       </c>
       <c r="E46" t="n">
-        <v>117.2940876772489</v>
+        <v>595.7852589122706</v>
       </c>
       <c r="F46" t="n">
-        <v>117.2940876772489</v>
+        <v>423.923484686831</v>
       </c>
       <c r="G46" t="n">
-        <v>117.2940876772489</v>
+        <v>258.4015986818949</v>
       </c>
       <c r="H46" t="n">
-        <v>43.47829594636953</v>
+        <v>121.1408925483534</v>
       </c>
       <c r="I46" t="n">
-        <v>43.47829594636953</v>
+        <v>43.47829594636958</v>
       </c>
       <c r="J46" t="n">
         <v>151.9058305081209</v>
       </c>
       <c r="K46" t="n">
-        <v>462.1372657109289</v>
+        <v>214.8546565969069</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5497827089001</v>
+        <v>676.6560671860431</v>
       </c>
       <c r="M46" t="n">
-        <v>976.605410541263</v>
+        <v>1180.77654209446</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.346267087957</v>
+        <v>1464.34626708796</v>
       </c>
       <c r="O46" t="n">
-        <v>1921.60751086826</v>
+        <v>1921.607510868263</v>
       </c>
       <c r="P46" t="n">
-        <v>1986.586340399616</v>
+        <v>1986.586340399619</v>
       </c>
       <c r="Q46" t="n">
-        <v>2173.914797318476</v>
+        <v>2173.914797318479</v>
       </c>
       <c r="R46" t="n">
-        <v>2173.914797318476</v>
+        <v>2173.914797318479</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.590253969379</v>
+        <v>2016.590253969382</v>
       </c>
       <c r="T46" t="n">
-        <v>1776.39171837156</v>
+        <v>1776.391718371563</v>
       </c>
       <c r="U46" t="n">
-        <v>1496.247365346455</v>
+        <v>1776.391718371563</v>
       </c>
       <c r="V46" t="n">
-        <v>1214.535897954484</v>
+        <v>1494.680250979591</v>
       </c>
       <c r="W46" t="n">
-        <v>939.6834941269967</v>
+        <v>1219.827847152104</v>
       </c>
       <c r="X46" t="n">
-        <v>697.1195975728018</v>
+        <v>1157.417363216842</v>
       </c>
       <c r="Y46" t="n">
-        <v>470.7768292625439</v>
+        <v>931.0745949065839</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>56.40025708778723</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M2" t="n">
         <v>65.54757303225151</v>
       </c>
       <c r="N2" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8060,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>42.55521653683996</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>49.45933834636135</v>
       </c>
       <c r="O3" t="n">
-        <v>42.6303257467342</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.86334842179818</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>51.78922952696383</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>47.61705358610257</v>
       </c>
       <c r="K4" t="n">
         <v>49.08096458553168</v>
@@ -8145,10 +8145,10 @@
         <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>49.55573749368652</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O4" t="n">
         <v>22.49918749842445</v>
@@ -8157,7 +8157,7 @@
         <v>50.49711079080617</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>56.40025708778723</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L5" t="n">
-        <v>65.29234003482364</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M5" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8291,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>41.85766985784532</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>49.49538431643026</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>51.21309064514766</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>49.45933834636135</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8318,7 +8318,7 @@
         <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L7" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M7" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N7" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O7" t="n">
         <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>49.36109826018719</v>
       </c>
       <c r="Q7" t="n">
-        <v>51.59986036698565</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8461,7 +8461,7 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>64.41156050163252</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8473,7 +8473,7 @@
         <v>65.69167194305098</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.24098473741773</v>
+        <v>63.10497220679875</v>
       </c>
       <c r="R8" t="n">
         <v>63.14896002761616</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>50.51554396615302</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>49.49538431643026</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>42.55521653683996</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>51.28819985504191</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q9" t="n">
         <v>50.86334842179818</v>
       </c>
       <c r="R9" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
         <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>48.89905749790193</v>
       </c>
       <c r="M10" t="n">
         <v>50.69175002430551</v>
       </c>
       <c r="N10" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O10" t="n">
         <v>22.49918749842445</v>
@@ -8631,7 +8631,7 @@
         <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.59986036698565</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>182.5789659683887</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>307.5209941216846</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>336.323537587294</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>166.4451545312771</v>
       </c>
       <c r="Q12" t="n">
-        <v>296.6601102174563</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>47.83682632745088</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.37786108376083</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>325.7708627900442</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>164.3290973000295</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>336.323537587294</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>166.4451545312768</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>252.653300448365</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>339.059832465648</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.37786108376121</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,10 +9102,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>48.46630476183601</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>565.5439584816196</v>
+        <v>567.8251025281744</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>151.4952784562236</v>
       </c>
       <c r="P17" t="n">
-        <v>542.7088167223678</v>
+        <v>542.7088167223676</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>100.1322796121261</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>190.1394028589657</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281029</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>215.7496175571584</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>542.7088167223676</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>169.8578789789664</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>485.1924255555222</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>76.43803128443747</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>497.0150514644889</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1006.352422962767</v>
+        <v>7.571207358686507</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>591.7131329140127</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>166.4451545312767</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>497.0150514644889</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1006.352422962767</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>744.8672090107314</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>591.7131329140129</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>166.4451545312767</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>898.6436315135104</v>
       </c>
       <c r="M29" t="n">
-        <v>744.8672090107302</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>166.4451545312766</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>591.7131329140128</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>612.2950502724317</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>744.8672090107314</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>166.4451545312766</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>591.7131329140129</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>151.4952784562236</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>567.8251025281745</v>
       </c>
       <c r="L35" t="n">
-        <v>520.7223794330354</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>490.9900337659671</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>250.3167845077628</v>
+        <v>542.7088167223676</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>541.5862777775757</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>50.1268551364372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>166.4451545312767</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>68.72688033744254</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>542.7088167223676</v>
+        <v>369.5260400599364</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>190.1394028589658</v>
+        <v>166.4451545312767</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.69273783026156</v>
+        <v>85.69273783026316</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>404.4072222598102</v>
+        <v>404.4072222598109</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>192.2205425454156</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>399.4925903685975</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>166.4451545312769</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>277.0812814540633</v>
       </c>
       <c r="P43" t="n">
-        <v>305.6944214415645</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>94.41388058741919</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>94.41388058742132</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>6.076571117961805</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>455.4216061098717</v>
+        <v>166.4451545312769</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11457,16 +11457,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>341.8895286735023</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>195.8199912006925</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -23263,7 +23263,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>41.08018417508481</v>
+        <v>95.97748170567843</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.35419329351383</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.24858467000303</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8666671448867</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.8880990722061</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>76.88597063596399</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.7965502418407</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.7037458258382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>305.1815053341787</v>
+        <v>64.43136843673915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>278.2747456063233</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.35419329351383</v>
       </c>
       <c r="T14" t="n">
-        <v>211.614453672689</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6415718627557</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8666671448867</v>
       </c>
       <c r="H16" t="n">
-        <v>126.4951685140312</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>76.88597063596399</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3429094948539</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>197.0428066716039</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.6733162014946</v>
       </c>
       <c r="H17" t="n">
-        <v>278.2747456063233</v>
+        <v>167.0686323873359</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.614453672689</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>108.4860246473116</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>51.937375013097</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>51.93737501309786</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>398.6733162014946</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>278.2747456063233</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.614453672689</v>
       </c>
       <c r="U20" t="n">
-        <v>19.48413227299235</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>299.9687137049264</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.78408633397223</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>65.784086333971</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>51.93737501309799</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>51.93737501309798</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>51.93737501309802</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.84671132087418</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>65.78408633397217</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.93737501309799</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.78408633397234</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.84671132087418</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>51.93737501309799</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>355.8467459362022</v>
+        <v>78.14734294456247</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>278.2747456063233</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.614453672689</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6415718627557</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.84671132087418</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>65.78408633397203</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>51.93737501309755</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>185.1951694596243</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>278.2747456063233</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>211.614453672689</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6415718627557</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>92.49575127688621</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>51.937375013097</v>
       </c>
       <c r="E40" t="n">
-        <v>51.93737501309788</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>131.9454745112619</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.6733162014946</v>
       </c>
       <c r="H41" t="n">
-        <v>278.2747456063233</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.35419329351383</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.614453672689</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6415718627557</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>340.5938113327213</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>105.6347550149907</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8666671448867</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.8880990722061</v>
+        <v>33.23798266680829</v>
       </c>
       <c r="I43" t="n">
-        <v>76.88597063596399</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>49.10638351885552</v>
+        <v>140.6783657791112</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>66.35419329351382</v>
       </c>
       <c r="T44" t="n">
-        <v>211.614453672689</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.6415718627557</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8666671448867</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>62.81046525863552</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.88597063596399</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3429094948539</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>178.3518784927431</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>338871.1073578169</v>
+        <v>338871.107357817</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>338871.107357817</v>
+        <v>338871.1073578171</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>437443.4334599189</v>
+        <v>437443.4334599188</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>338871.1073578168</v>
+        <v>338871.1073578172</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>338871.1073578169</v>
+        <v>338871.1073578171</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097676</v>
       </c>
       <c r="C2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
         <v>509637.3345097677</v>
@@ -26325,37 +26325,37 @@
         <v>300371.7147024137</v>
       </c>
       <c r="F2" t="n">
-        <v>300371.7147024137</v>
+        <v>300371.7147024138</v>
       </c>
       <c r="G2" t="n">
-        <v>368954.5899231065</v>
+        <v>368954.5899231068</v>
       </c>
       <c r="H2" t="n">
-        <v>368954.5899231066</v>
+        <v>368954.5899231067</v>
       </c>
       <c r="I2" t="n">
-        <v>508255.8686967542</v>
+        <v>508255.8686967545</v>
       </c>
       <c r="J2" t="n">
         <v>508255.8686967543</v>
       </c>
       <c r="K2" t="n">
-        <v>508255.8686967547</v>
+        <v>508255.8686967543</v>
       </c>
       <c r="L2" t="n">
-        <v>508255.8686967543</v>
+        <v>508255.8686967546</v>
       </c>
       <c r="M2" t="n">
         <v>368954.5899231068</v>
       </c>
       <c r="N2" t="n">
-        <v>368954.5899231067</v>
+        <v>368954.5899231068</v>
       </c>
       <c r="O2" t="n">
-        <v>300371.7147024135</v>
+        <v>300371.7147024137</v>
       </c>
       <c r="P2" t="n">
-        <v>300371.7147024133</v>
+        <v>300371.7147024137</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53433.28643909435</v>
+        <v>53433.28643909423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>137045.6818976021</v>
+        <v>137045.6818976022</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391494</v>
+        <v>7356.463848391495</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321778.1116303671</v>
+        <v>321778.1116303672</v>
       </c>
       <c r="C4" t="n">
         <v>321778.1116303672</v>
       </c>
       <c r="D4" t="n">
-        <v>321778.1116303672</v>
+        <v>321778.1116303671</v>
       </c>
       <c r="E4" t="n">
-        <v>38948.12375035123</v>
+        <v>38948.12375035125</v>
       </c>
       <c r="F4" t="n">
-        <v>38948.12375035123</v>
+        <v>38948.12375035127</v>
       </c>
       <c r="G4" t="n">
-        <v>69057.53243528541</v>
+        <v>69057.53243528538</v>
       </c>
       <c r="H4" t="n">
-        <v>69057.53243528542</v>
+        <v>69057.53243528538</v>
       </c>
       <c r="I4" t="n">
         <v>130213.8942739063</v>
@@ -26450,16 +26450,16 @@
         <v>130213.8942739063</v>
       </c>
       <c r="M4" t="n">
-        <v>69057.53243528536</v>
+        <v>69057.53243528538</v>
       </c>
       <c r="N4" t="n">
-        <v>69057.53243528539</v>
+        <v>69057.53243528538</v>
       </c>
       <c r="O4" t="n">
-        <v>38948.12375035119</v>
+        <v>38948.12375035128</v>
       </c>
       <c r="P4" t="n">
-        <v>38948.12375035119</v>
+        <v>38948.12375035128</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>35337.07165607544</v>
       </c>
       <c r="E5" t="n">
-        <v>41841.13366753537</v>
+        <v>41841.13366753538</v>
       </c>
       <c r="F5" t="n">
-        <v>41841.13366753537</v>
+        <v>41841.13366753538</v>
       </c>
       <c r="G5" t="n">
+        <v>53694.18587942924</v>
+      </c>
+      <c r="H5" t="n">
+        <v>53694.18587942924</v>
+      </c>
+      <c r="I5" t="n">
+        <v>85028.21914259468</v>
+      </c>
+      <c r="J5" t="n">
+        <v>85028.21914259468</v>
+      </c>
+      <c r="K5" t="n">
+        <v>85028.21914259468</v>
+      </c>
+      <c r="L5" t="n">
+        <v>85028.21914259468</v>
+      </c>
+      <c r="M5" t="n">
+        <v>53694.18587942925</v>
+      </c>
+      <c r="N5" t="n">
         <v>53694.18587942926</v>
       </c>
-      <c r="H5" t="n">
-        <v>53694.18587942926</v>
-      </c>
-      <c r="I5" t="n">
-        <v>85028.21914259467</v>
-      </c>
-      <c r="J5" t="n">
-        <v>85028.21914259467</v>
-      </c>
-      <c r="K5" t="n">
-        <v>85028.21914259467</v>
-      </c>
-      <c r="L5" t="n">
-        <v>85028.21914259467</v>
-      </c>
-      <c r="M5" t="n">
-        <v>53694.18587942924</v>
-      </c>
-      <c r="N5" t="n">
-        <v>53694.18587942924</v>
-      </c>
       <c r="O5" t="n">
-        <v>41841.13366753536</v>
+        <v>41841.1336675354</v>
       </c>
       <c r="P5" t="n">
-        <v>41841.13366753536</v>
+        <v>41841.1336675354</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143099.7290226842</v>
+        <v>143099.729022684</v>
       </c>
       <c r="C6" t="n">
-        <v>152522.1512233251</v>
+        <v>152522.1512233252</v>
       </c>
       <c r="D6" t="n">
         <v>152522.1512233251</v>
       </c>
       <c r="E6" t="n">
-        <v>-258515.4934812063</v>
+        <v>-259113.3952520844</v>
       </c>
       <c r="F6" t="n">
-        <v>219582.457284527</v>
+        <v>218984.555513649</v>
       </c>
       <c r="G6" t="n">
-        <v>192769.5851692976</v>
+        <v>192367.6344704789</v>
       </c>
       <c r="H6" t="n">
-        <v>246202.871608392</v>
+        <v>245800.920909573</v>
       </c>
       <c r="I6" t="n">
-        <v>155968.0733826511</v>
+        <v>155964.1263374712</v>
       </c>
       <c r="J6" t="n">
-        <v>285657.2914318619</v>
+        <v>285653.3443866818</v>
       </c>
       <c r="K6" t="n">
-        <v>293013.7552802538</v>
+        <v>293009.8082350733</v>
       </c>
       <c r="L6" t="n">
-        <v>293013.7552802534</v>
+        <v>293009.8082350736</v>
       </c>
       <c r="M6" t="n">
-        <v>246202.8716083922</v>
+        <v>245800.9209095731</v>
       </c>
       <c r="N6" t="n">
-        <v>246202.8716083921</v>
+        <v>245800.9209095731</v>
       </c>
       <c r="O6" t="n">
-        <v>219582.457284527</v>
+        <v>218984.5555136489</v>
       </c>
       <c r="P6" t="n">
-        <v>219582.4572845268</v>
+        <v>218984.5555136489</v>
       </c>
     </row>
   </sheetData>
@@ -26798,40 +26798,40 @@
         <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
-        <v>543.4786993296193</v>
+        <v>543.4786993296194</v>
       </c>
       <c r="F4" t="n">
-        <v>543.4786993296193</v>
+        <v>543.4786993296195</v>
       </c>
       <c r="G4" t="n">
+        <v>738.4302159726107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>738.4302159726107</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1253.792605169411</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1253.792605169411</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1253.792605169411</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1253.792605169411</v>
+      </c>
+      <c r="M4" t="n">
+        <v>738.4302159726108</v>
+      </c>
+      <c r="N4" t="n">
         <v>738.4302159726109</v>
       </c>
-      <c r="H4" t="n">
-        <v>738.4302159726109</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1253.79260516941</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1253.79260516941</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1253.79260516941</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1253.79260516941</v>
-      </c>
-      <c r="M4" t="n">
-        <v>738.4302159726107</v>
-      </c>
-      <c r="N4" t="n">
-        <v>738.4302159726107</v>
-      </c>
       <c r="O4" t="n">
-        <v>543.4786993296191</v>
+        <v>543.4786993296198</v>
       </c>
       <c r="P4" t="n">
-        <v>543.4786993296191</v>
+        <v>543.4786993296198</v>
       </c>
     </row>
   </sheetData>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>515.3623891967997</v>
+        <v>515.3623891967998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.9515166429916</v>
+        <v>194.9515166429912</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>515.3623891967994</v>
+        <v>515.3623891967998</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281976</v>
+        <v>28.11631013281977</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>515.3623891967997</v>
+        <v>515.3623891967998</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.9515166429916</v>
+        <v>194.9515166429912</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27463,19 +27463,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>74.68524876704814</v>
       </c>
       <c r="E3" t="n">
-        <v>78.89006842480455</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>55.74615899937044</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -27523,10 +27523,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>133.726262638184</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>110.1796496274208</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>136.4298136558553</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>142.0268463503655</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -27557,7 +27557,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>74.00603661213921</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>18.4519170468789</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27599,10 +27599,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>247.3390338242245</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27697,7 +27697,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>88.21453431485057</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -27709,7 +27709,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>68.34838809958447</v>
       </c>
       <c r="H6" t="n">
         <v>52.84233230531351</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T6" t="n">
-        <v>115.6962903803109</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>154.80420398674</v>
       </c>
       <c r="V6" t="n">
-        <v>174.8070973393067</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>166.4398532622953</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -27779,19 +27779,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>139.7812778236874</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>142.0268463503655</v>
       </c>
       <c r="G7" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.803381214711</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>212.7896441635393</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -27934,7 +27934,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>88.21453431485057</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
         <v>74.68524876704814</v>
@@ -27949,7 +27949,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>55.74615899937044</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
-        <v>140.4611363452985</v>
+        <v>115.6962903803109</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9205141195597</v>
+        <v>154.80420398674</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>174.8070973393067</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.1479988921253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -28019,7 +28019,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>136.4298136558553</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>212.7896441635393</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>250.7780425852317</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>243.9875696563924</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -32706,7 +32706,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J23" t="n">
         <v>137.6954023282582</v>
@@ -32724,7 +32724,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O23" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P23" t="n">
         <v>233.2967610604744</v>
@@ -32736,10 +32736,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S23" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T23" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U23" t="n">
         <v>0.1297884467961018</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H24" t="n">
         <v>8.383407695925454</v>
@@ -32788,7 +32788,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J24" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K24" t="n">
         <v>140.1689015172059</v>
@@ -32812,7 +32812,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R24" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S24" t="n">
         <v>16.12340217631438</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H25" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I25" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J25" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K25" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L25" t="n">
         <v>108.1940295906216</v>
@@ -32885,16 +32885,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P25" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R25" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S25" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T25" t="n">
         <v>3.109404054518291</v>
@@ -32943,7 +32943,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I26" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J26" t="n">
         <v>137.6954023282582</v>
@@ -32961,7 +32961,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O26" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P26" t="n">
         <v>233.2967610604744</v>
@@ -32973,10 +32973,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S26" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T26" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U26" t="n">
         <v>0.1297884467961018</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H27" t="n">
         <v>8.383407695925454</v>
@@ -33025,7 +33025,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J27" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K27" t="n">
         <v>140.1689015172059</v>
@@ -33049,7 +33049,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R27" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S27" t="n">
         <v>16.12340217631438</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H28" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I28" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J28" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K28" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L28" t="n">
         <v>108.1940295906216</v>
@@ -33122,16 +33122,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P28" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R28" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S28" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T28" t="n">
         <v>3.109404054518291</v>
@@ -33180,7 +33180,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I29" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J29" t="n">
         <v>137.6954023282582</v>
@@ -33198,7 +33198,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O29" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P29" t="n">
         <v>233.2967610604744</v>
@@ -33210,10 +33210,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S29" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T29" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U29" t="n">
         <v>0.1297884467961018</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H30" t="n">
         <v>8.383407695925454</v>
@@ -33262,7 +33262,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J30" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K30" t="n">
         <v>140.1689015172059</v>
@@ -33286,7 +33286,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R30" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S30" t="n">
         <v>16.12340217631438</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H31" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I31" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J31" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K31" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L31" t="n">
         <v>108.1940295906216</v>
@@ -33359,16 +33359,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P31" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R31" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S31" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T31" t="n">
         <v>3.109404054518291</v>
@@ -33417,7 +33417,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I32" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J32" t="n">
         <v>137.6954023282582</v>
@@ -33435,7 +33435,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O32" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P32" t="n">
         <v>233.2967610604744</v>
@@ -33447,10 +33447,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S32" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T32" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U32" t="n">
         <v>0.1297884467961018</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H33" t="n">
         <v>8.383407695925454</v>
@@ -33499,7 +33499,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J33" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K33" t="n">
         <v>140.1689015172059</v>
@@ -33523,7 +33523,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R33" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S33" t="n">
         <v>16.12340217631438</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H34" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I34" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J34" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K34" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L34" t="n">
         <v>108.1940295906216</v>
@@ -33596,16 +33596,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P34" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R34" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S34" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T34" t="n">
         <v>3.109404054518291</v>
@@ -33654,7 +33654,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J35" t="n">
         <v>137.6954023282582</v>
@@ -33672,7 +33672,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O35" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P35" t="n">
         <v>233.2967610604744</v>
@@ -33684,10 +33684,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S35" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T35" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U35" t="n">
         <v>0.1297884467961018</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H36" t="n">
         <v>8.383407695925454</v>
@@ -33736,7 +33736,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J36" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K36" t="n">
         <v>140.1689015172059</v>
@@ -33760,7 +33760,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R36" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S36" t="n">
         <v>16.12340217631438</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H37" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I37" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J37" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K37" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L37" t="n">
         <v>108.1940295906216</v>
@@ -33833,16 +33833,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P37" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R37" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S37" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T37" t="n">
         <v>3.109404054518291</v>
@@ -33891,7 +33891,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J38" t="n">
         <v>137.6954023282582</v>
@@ -33909,7 +33909,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O38" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P38" t="n">
         <v>233.2967610604744</v>
@@ -33921,10 +33921,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S38" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T38" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U38" t="n">
         <v>0.1297884467961018</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H39" t="n">
         <v>8.383407695925454</v>
@@ -33973,7 +33973,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J39" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K39" t="n">
         <v>140.1689015172059</v>
@@ -33997,7 +33997,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R39" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S39" t="n">
         <v>16.12340217631438</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H40" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I40" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J40" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K40" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L40" t="n">
         <v>108.1940295906216</v>
@@ -34070,16 +34070,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P40" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R40" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S40" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T40" t="n">
         <v>3.109404054518291</v>
@@ -34128,7 +34128,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I41" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J41" t="n">
         <v>137.6954023282582</v>
@@ -34146,7 +34146,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O41" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P41" t="n">
         <v>233.2967610604744</v>
@@ -34158,10 +34158,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S41" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T41" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U41" t="n">
         <v>0.1297884467961018</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H42" t="n">
         <v>8.383407695925454</v>
@@ -34210,7 +34210,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J42" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K42" t="n">
         <v>140.1689015172059</v>
@@ -34234,7 +34234,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R42" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S42" t="n">
         <v>16.12340217631438</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H43" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I43" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J43" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K43" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L43" t="n">
         <v>108.1940295906216</v>
@@ -34307,16 +34307,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P43" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R43" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S43" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T43" t="n">
         <v>3.109404054518291</v>
@@ -34365,7 +34365,7 @@
         <v>16.61494913438223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.545863688834</v>
+        <v>62.54586368883401</v>
       </c>
       <c r="J44" t="n">
         <v>137.6954023282582</v>
@@ -34383,7 +34383,7 @@
         <v>289.4809629118182</v>
       </c>
       <c r="O44" t="n">
-        <v>273.3486645639589</v>
+        <v>273.348664563959</v>
       </c>
       <c r="P44" t="n">
         <v>233.2967610604744</v>
@@ -34395,10 +34395,10 @@
         <v>101.9102940131955</v>
       </c>
       <c r="S44" t="n">
-        <v>36.96942789207716</v>
+        <v>36.96942789207717</v>
       </c>
       <c r="T44" t="n">
-        <v>7.1018615731242</v>
+        <v>7.101861573124201</v>
       </c>
       <c r="U44" t="n">
         <v>0.1297884467961018</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8680367641557689</v>
+        <v>0.868036764155769</v>
       </c>
       <c r="H45" t="n">
         <v>8.383407695925454</v>
@@ -34447,7 +34447,7 @@
         <v>29.88635350273152</v>
       </c>
       <c r="J45" t="n">
-        <v>82.01043831876939</v>
+        <v>82.0104383187694</v>
       </c>
       <c r="K45" t="n">
         <v>140.1689015172059</v>
@@ -34471,7 +34471,7 @@
         <v>110.8041315087259</v>
       </c>
       <c r="R45" t="n">
-        <v>53.89442295346083</v>
+        <v>53.89442295346084</v>
       </c>
       <c r="S45" t="n">
         <v>16.12340217631438</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7277328638234299</v>
+        <v>0.7277328638234301</v>
       </c>
       <c r="H46" t="n">
-        <v>6.470206734721046</v>
+        <v>6.470206734721047</v>
       </c>
       <c r="I46" t="n">
         <v>21.88491194116279</v>
       </c>
       <c r="J46" t="n">
-        <v>51.45071347231649</v>
+        <v>51.4507134723165</v>
       </c>
       <c r="K46" t="n">
-        <v>84.54932726966757</v>
+        <v>84.54932726966759</v>
       </c>
       <c r="L46" t="n">
         <v>108.1940295906216</v>
@@ -34544,16 +34544,16 @@
         <v>102.8617324247881</v>
       </c>
       <c r="P46" t="n">
-        <v>88.01598200279007</v>
+        <v>88.01598200279008</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.93770371525103</v>
+        <v>60.93770371525104</v>
       </c>
       <c r="R46" t="n">
         <v>32.7215158588244</v>
       </c>
       <c r="S46" t="n">
-        <v>12.68239909045013</v>
+        <v>12.68239909045014</v>
       </c>
       <c r="T46" t="n">
         <v>3.109404054518291</v>
@@ -34701,19 +34701,19 @@
         <v>26.98029760220071</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M2" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="N2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O3" t="n">
-        <v>19.45843602451198</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>28.11631013281968</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K4" t="n">
         <v>28.11631013281968</v>
@@ -34865,10 +34865,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L5" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="M6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K6" t="n">
-        <v>19.45843602451198</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="R6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="Q7" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="M7" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="N7" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>26.98029760220071</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="Q8" t="n">
-        <v>28.11631013281968</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="R8" t="n">
         <v>28.11631013281968</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L9" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q9" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="R9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="M10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>108.2754428426717</v>
       </c>
       <c r="K11" t="n">
-        <v>170.6051134444363</v>
+        <v>353.1840794128249</v>
       </c>
       <c r="L11" t="n">
         <v>217.7078365395753</v>
@@ -35424,16 +35424,16 @@
         <v>252.2013400773722</v>
       </c>
       <c r="O11" t="n">
-        <v>235.9577052079349</v>
+        <v>543.4786993296194</v>
       </c>
       <c r="P11" t="n">
         <v>195.7213992502431</v>
       </c>
       <c r="Q11" t="n">
-        <v>475.3950146571028</v>
+        <v>139.0714770698089</v>
       </c>
       <c r="R11" t="n">
-        <v>220.6540666211779</v>
+        <v>66.87764411839899</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J12" t="n">
         <v>356.4523466819927</v>
@@ -35506,13 +35506,13 @@
         <v>183.3561381074181</v>
       </c>
       <c r="P12" t="n">
-        <v>143.9861089610216</v>
+        <v>310.4312634922987</v>
       </c>
       <c r="Q12" t="n">
-        <v>384.7172034372038</v>
+        <v>88.05709321974737</v>
       </c>
       <c r="R12" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.81395748841463</v>
+        <v>109.5227621835872</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58467281695557</v>
+        <v>313.3650860634425</v>
       </c>
       <c r="L13" t="n">
         <v>466.4660713021577</v>
       </c>
       <c r="M13" t="n">
-        <v>509.2126009175934</v>
+        <v>91.49999438949055</v>
       </c>
       <c r="N13" t="n">
-        <v>492.6675318653475</v>
+        <v>138.4509007767578</v>
       </c>
       <c r="O13" t="n">
         <v>461.8800442225286</v>
       </c>
       <c r="P13" t="n">
-        <v>65.63518134480358</v>
+        <v>381.5505394996597</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.69600203422691</v>
+        <v>189.2206635544045</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>170.6051134444363</v>
       </c>
       <c r="L14" t="n">
-        <v>217.7078365395753</v>
+        <v>543.4786993296195</v>
       </c>
       <c r="M14" t="n">
-        <v>247.4401822066436</v>
+        <v>411.7692795066731</v>
       </c>
       <c r="N14" t="n">
         <v>252.2013400773722</v>
@@ -35667,10 +35667,10 @@
         <v>195.7213992502431</v>
       </c>
       <c r="Q14" t="n">
-        <v>475.3950146571028</v>
+        <v>139.0714770698089</v>
       </c>
       <c r="R14" t="n">
-        <v>220.6540666211779</v>
+        <v>66.87764411839899</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J15" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K15" t="n">
-        <v>117.7696676838726</v>
+        <v>284.2148222151494</v>
       </c>
       <c r="L15" t="n">
         <v>165.9592992924868</v>
       </c>
       <c r="M15" t="n">
-        <v>449.4972386434</v>
+        <v>196.843938195035</v>
       </c>
       <c r="N15" t="n">
-        <v>543.4786993296193</v>
+        <v>204.4188668639712</v>
       </c>
       <c r="O15" t="n">
         <v>183.3561381074181</v>
@@ -35749,7 +35749,7 @@
         <v>88.05709321974737</v>
       </c>
       <c r="R15" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.19181857217584</v>
+        <v>109.5227621835872</v>
       </c>
       <c r="K16" t="n">
         <v>63.58467281695557</v>
@@ -35813,7 +35813,7 @@
         <v>466.4660713021577</v>
       </c>
       <c r="M16" t="n">
-        <v>509.2126009175934</v>
+        <v>91.49999438949055</v>
       </c>
       <c r="N16" t="n">
         <v>492.6675318653475</v>
@@ -35822,10 +35822,10 @@
         <v>461.8800442225286</v>
       </c>
       <c r="P16" t="n">
-        <v>65.63518134480358</v>
+        <v>381.5505394996597</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.31814095046609</v>
+        <v>84.7844457123021</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>108.2754428426717</v>
       </c>
       <c r="K17" t="n">
-        <v>736.1490719260559</v>
+        <v>738.4302159726107</v>
       </c>
       <c r="L17" t="n">
         <v>217.7078365395753</v>
@@ -35898,16 +35898,16 @@
         <v>252.2013400773722</v>
       </c>
       <c r="O17" t="n">
-        <v>235.9577052079349</v>
+        <v>387.4529836641584</v>
       </c>
       <c r="P17" t="n">
-        <v>738.4302159726109</v>
+        <v>738.4302159726107</v>
       </c>
       <c r="Q17" t="n">
         <v>139.0714770698089</v>
       </c>
       <c r="R17" t="n">
-        <v>220.6540666211779</v>
+        <v>66.87764411839899</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>13.71396675273152</v>
       </c>
       <c r="J18" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K18" t="n">
         <v>117.7696676838726</v>
@@ -35974,7 +35974,7 @@
         <v>196.843938195035</v>
       </c>
       <c r="N18" t="n">
-        <v>304.5511464760974</v>
+        <v>204.4188668639712</v>
       </c>
       <c r="O18" t="n">
         <v>183.3561381074181</v>
@@ -35983,10 +35983,10 @@
         <v>143.9861089610216</v>
       </c>
       <c r="Q18" t="n">
-        <v>579.6379465216343</v>
+        <v>278.196496078713</v>
       </c>
       <c r="R18" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>503.9615223453244</v>
       </c>
       <c r="K20" t="n">
-        <v>386.3547310015947</v>
+        <v>170.6051134444363</v>
       </c>
       <c r="L20" t="n">
         <v>217.7078365395753</v>
@@ -36138,10 +36138,10 @@
         <v>235.9577052079349</v>
       </c>
       <c r="P20" t="n">
-        <v>195.7213992502431</v>
+        <v>738.4302159726107</v>
       </c>
       <c r="Q20" t="n">
-        <v>635.8885552139858</v>
+        <v>308.9293560487752</v>
       </c>
       <c r="R20" t="n">
         <v>220.6540666211779</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J21" t="n">
         <v>61.39932398543606</v>
@@ -36220,10 +36220,10 @@
         <v>143.9861089610216</v>
       </c>
       <c r="Q21" t="n">
-        <v>573.2495187752695</v>
+        <v>579.6379465216343</v>
       </c>
       <c r="R21" t="n">
-        <v>136.7422109178074</v>
+        <v>106.6595348437542</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5227621835882</v>
+        <v>109.5227621835872</v>
       </c>
       <c r="K22" t="n">
         <v>313.3650860634425</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J23" t="n">
         <v>503.9615223453244</v>
       </c>
       <c r="K23" t="n">
-        <v>667.6201649089252</v>
+        <v>929.1053788609618</v>
       </c>
       <c r="L23" t="n">
         <v>217.7078365395753</v>
       </c>
       <c r="M23" t="n">
-        <v>1253.79260516941</v>
+        <v>255.0113895653301</v>
       </c>
       <c r="N23" t="n">
         <v>252.2013400773722</v>
       </c>
       <c r="O23" t="n">
-        <v>235.9577052079349</v>
+        <v>1127.030129362759</v>
       </c>
       <c r="P23" t="n">
         <v>948.7303763715124</v>
@@ -36381,7 +36381,7 @@
         <v>635.8885552139858</v>
       </c>
       <c r="R23" t="n">
-        <v>220.6540666211779</v>
+        <v>66.87764411839902</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J24" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K24" t="n">
         <v>117.7696676838726</v>
       </c>
       <c r="L24" t="n">
-        <v>757.6724322064996</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M24" t="n">
         <v>196.843938195035</v>
       </c>
       <c r="N24" t="n">
-        <v>204.4188668639712</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O24" t="n">
         <v>183.3561381074181</v>
       </c>
       <c r="P24" t="n">
-        <v>143.9861089610216</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.05709321974737</v>
+        <v>254.502247751024</v>
       </c>
       <c r="R24" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J26" t="n">
         <v>503.9615223453244</v>
       </c>
       <c r="K26" t="n">
-        <v>667.6201649089252</v>
+        <v>929.1053788609618</v>
       </c>
       <c r="L26" t="n">
         <v>217.7078365395753</v>
       </c>
       <c r="M26" t="n">
-        <v>1253.79260516941</v>
+        <v>247.4401822066436</v>
       </c>
       <c r="N26" t="n">
         <v>252.2013400773722</v>
       </c>
       <c r="O26" t="n">
-        <v>235.9577052079349</v>
+        <v>980.8249142186662</v>
       </c>
       <c r="P26" t="n">
         <v>948.7303763715124</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J27" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K27" t="n">
         <v>117.7696676838726</v>
       </c>
       <c r="L27" t="n">
-        <v>165.9592992924868</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M27" t="n">
         <v>196.843938195035</v>
       </c>
       <c r="N27" t="n">
-        <v>796.1319997779841</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O27" t="n">
         <v>183.3561381074181</v>
       </c>
       <c r="P27" t="n">
-        <v>143.9861089610216</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.05709321974737</v>
+        <v>254.502247751024</v>
       </c>
       <c r="R27" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J29" t="n">
         <v>503.9615223453244</v>
@@ -36837,10 +36837,10 @@
         <v>929.1053788609618</v>
       </c>
       <c r="L29" t="n">
-        <v>217.7078365395753</v>
+        <v>1116.351468053086</v>
       </c>
       <c r="M29" t="n">
-        <v>992.3073912173738</v>
+        <v>247.4401822066436</v>
       </c>
       <c r="N29" t="n">
         <v>252.2013400773722</v>
@@ -36855,7 +36855,7 @@
         <v>635.8885552139858</v>
       </c>
       <c r="R29" t="n">
-        <v>220.6540666211779</v>
+        <v>66.87764411839902</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J30" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K30" t="n">
-        <v>117.7696676838726</v>
+        <v>284.2148222151491</v>
       </c>
       <c r="L30" t="n">
-        <v>165.9592992924868</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M30" t="n">
-        <v>788.5570711090478</v>
+        <v>196.843938195035</v>
       </c>
       <c r="N30" t="n">
-        <v>204.4188668639712</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O30" t="n">
         <v>183.3561381074181</v>
       </c>
       <c r="P30" t="n">
-        <v>143.9861089610216</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.05709321974737</v>
+        <v>88.05709321974739</v>
       </c>
       <c r="R30" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J32" t="n">
         <v>503.9615223453244</v>
       </c>
       <c r="K32" t="n">
-        <v>782.900163716868</v>
+        <v>929.1053788609618</v>
       </c>
       <c r="L32" t="n">
         <v>217.7078365395753</v>
@@ -37083,7 +37083,7 @@
         <v>252.2013400773722</v>
       </c>
       <c r="O32" t="n">
-        <v>1127.030129362759</v>
+        <v>980.8249142186662</v>
       </c>
       <c r="P32" t="n">
         <v>948.7303763715124</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J33" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K33" t="n">
-        <v>117.7696676838726</v>
+        <v>284.2148222151491</v>
       </c>
       <c r="L33" t="n">
-        <v>165.9592992924868</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M33" t="n">
         <v>196.843938195035</v>
       </c>
       <c r="N33" t="n">
-        <v>796.1319997779841</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O33" t="n">
         <v>183.3561381074181</v>
       </c>
       <c r="P33" t="n">
-        <v>143.9861089610216</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.05709321974737</v>
+        <v>88.05709321974739</v>
       </c>
       <c r="R33" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J35" t="n">
-        <v>108.2754428426717</v>
+        <v>259.7707212988952</v>
       </c>
       <c r="K35" t="n">
-        <v>170.6051134444363</v>
+        <v>738.4302159726108</v>
       </c>
       <c r="L35" t="n">
-        <v>738.4302159726107</v>
+        <v>217.7078365395753</v>
       </c>
       <c r="M35" t="n">
-        <v>738.4302159726107</v>
+        <v>247.4401822066436</v>
       </c>
       <c r="N35" t="n">
         <v>252.2013400773722</v>
@@ -37323,13 +37323,13 @@
         <v>235.9577052079349</v>
       </c>
       <c r="P35" t="n">
-        <v>446.0381837580059</v>
+        <v>738.4302159726108</v>
       </c>
       <c r="Q35" t="n">
         <v>139.0714770698089</v>
       </c>
       <c r="R35" t="n">
-        <v>66.87764411839899</v>
+        <v>66.87764411839902</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J36" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K36" t="n">
         <v>117.7696676838726</v>
       </c>
       <c r="L36" t="n">
-        <v>165.9592992924868</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M36" t="n">
-        <v>738.4302159726107</v>
+        <v>196.843938195035</v>
       </c>
       <c r="N36" t="n">
-        <v>204.4188668639712</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O36" t="n">
         <v>183.3561381074181</v>
       </c>
       <c r="P36" t="n">
-        <v>194.1129640974588</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.05709321974737</v>
+        <v>254.502247751024</v>
       </c>
       <c r="R36" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J38" t="n">
-        <v>108.2754428426717</v>
+        <v>503.9615223453244</v>
       </c>
       <c r="K38" t="n">
         <v>170.6051134444363</v>
@@ -37557,16 +37557,16 @@
         <v>252.2013400773722</v>
       </c>
       <c r="O38" t="n">
-        <v>304.6845855453774</v>
+        <v>235.9577052079349</v>
       </c>
       <c r="P38" t="n">
-        <v>738.4302159726107</v>
+        <v>565.2474393101795</v>
       </c>
       <c r="Q38" t="n">
         <v>635.8885552139858</v>
       </c>
       <c r="R38" t="n">
-        <v>220.6540666211779</v>
+        <v>66.87764411839902</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J39" t="n">
         <v>356.4523466819927</v>
       </c>
       <c r="K39" t="n">
-        <v>307.9090705428383</v>
+        <v>284.2148222151492</v>
       </c>
       <c r="L39" t="n">
-        <v>165.9592992924868</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M39" t="n">
         <v>196.843938195035</v>
       </c>
       <c r="N39" t="n">
-        <v>204.4188668639712</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O39" t="n">
         <v>183.3561381074181</v>
       </c>
       <c r="P39" t="n">
-        <v>143.9861089610216</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.05709321974737</v>
+        <v>88.05709321974739</v>
       </c>
       <c r="R39" t="n">
         <v>136.7422109178074</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J41" t="n">
-        <v>193.9681806729332</v>
+        <v>193.9681806729348</v>
       </c>
       <c r="K41" t="n">
         <v>170.6051134444363</v>
@@ -37800,10 +37800,10 @@
         <v>195.7213992502431</v>
       </c>
       <c r="Q41" t="n">
-        <v>543.4786993296191</v>
+        <v>543.4786993296198</v>
       </c>
       <c r="R41" t="n">
-        <v>66.87764411839899</v>
+        <v>66.87764411839902</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.71396675273152</v>
+        <v>37.40821508042025</v>
       </c>
       <c r="J42" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K42" t="n">
         <v>117.7696676838726</v>
       </c>
       <c r="L42" t="n">
-        <v>165.9592992924868</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M42" t="n">
         <v>196.843938195035</v>
       </c>
       <c r="N42" t="n">
-        <v>204.4188668639712</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O42" t="n">
-        <v>375.5766806528337</v>
+        <v>183.3561381074181</v>
       </c>
       <c r="P42" t="n">
-        <v>543.4786993296191</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.05709321974737</v>
+        <v>254.5022477510243</v>
       </c>
       <c r="R42" t="n">
-        <v>30.22150355931668</v>
+        <v>136.7422109178074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>109.5227621835872</v>
       </c>
       <c r="K43" t="n">
-        <v>313.3650860634425</v>
+        <v>63.58467281695559</v>
       </c>
       <c r="L43" t="n">
-        <v>86.27526969492038</v>
+        <v>466.4660713021577</v>
       </c>
       <c r="M43" t="n">
-        <v>509.2126009175934</v>
+        <v>91.49999438949058</v>
       </c>
       <c r="N43" t="n">
         <v>492.6675318653475</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36254492636367</v>
+        <v>357.443826380427</v>
       </c>
       <c r="P43" t="n">
-        <v>371.3296027863681</v>
+        <v>381.5505394996597</v>
       </c>
       <c r="Q43" t="n">
         <v>189.2206635544045</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>27.99796114487049</v>
+        <v>27.99796114487051</v>
       </c>
       <c r="J44" t="n">
         <v>503.9615223453244</v>
@@ -38037,10 +38037,10 @@
         <v>195.7213992502431</v>
       </c>
       <c r="Q44" t="n">
-        <v>233.485357657228</v>
+        <v>139.0714770698089</v>
       </c>
       <c r="R44" t="n">
-        <v>66.87764411839899</v>
+        <v>161.2915247058203</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>37.40821508042025</v>
       </c>
       <c r="J45" t="n">
-        <v>61.39932398543606</v>
+        <v>356.4523466819927</v>
       </c>
       <c r="K45" t="n">
         <v>117.7696676838726</v>
       </c>
       <c r="L45" t="n">
-        <v>165.9592992924868</v>
+        <v>165.9592992924869</v>
       </c>
       <c r="M45" t="n">
         <v>196.843938195035</v>
       </c>
       <c r="N45" t="n">
-        <v>204.4188668639712</v>
+        <v>204.4188668639713</v>
       </c>
       <c r="O45" t="n">
         <v>183.3561381074181</v>
       </c>
       <c r="P45" t="n">
-        <v>150.0626800789834</v>
+        <v>143.9861089610217</v>
       </c>
       <c r="Q45" t="n">
-        <v>543.4786993296191</v>
+        <v>254.5022477510243</v>
       </c>
       <c r="R45" t="n">
         <v>136.7422109178074</v>
@@ -38177,22 +38177,22 @@
         <v>109.5227621835872</v>
       </c>
       <c r="K46" t="n">
-        <v>313.3650860634425</v>
+        <v>63.58467281695559</v>
       </c>
       <c r="L46" t="n">
-        <v>86.27526969492038</v>
+        <v>466.4660713021577</v>
       </c>
       <c r="M46" t="n">
-        <v>433.3895230629929</v>
+        <v>509.2126009175934</v>
       </c>
       <c r="N46" t="n">
-        <v>492.6675318653475</v>
+        <v>286.4340656499995</v>
       </c>
       <c r="O46" t="n">
         <v>461.8800442225286</v>
       </c>
       <c r="P46" t="n">
-        <v>65.63518134480358</v>
+        <v>65.6351813448036</v>
       </c>
       <c r="Q46" t="n">
         <v>189.2206635544045</v>
